--- a/2023-05/202305/02_詳細設計書/01_詳細設計書/バージョン２/詳細設計書_入出庫登録(篠崎 )0510修正済.xlsx
+++ b/2023-05/202305/02_詳細設計書/01_詳細設計書/バージョン２/詳細設計書_入出庫登録(篠崎 )0510修正済.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A0AAACEA-94C6-421A-A459-84D6D96B3A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2550" yWindow="-16297" windowWidth="28995" windowHeight="15675" tabRatio="758" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2550" yWindow="-16297" windowWidth="28995" windowHeight="15675" tabRatio="758" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="69" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">イベント処理!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'イベント処理'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,115 +44,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>詳細設計書</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>管理番号</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>D2001</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>システムID</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>KS</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>システム名称</t>
-    <rPh sb="4" eb="6">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入出庫登録システム</t>
   </si>
   <si>
     <t>論理名称</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>K005</t>
   </si>
   <si>
     <t>物理名称</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入出庫登録</t>
   </si>
   <si>
     <t>改定日</t>
-    <rPh sb="0" eb="3">
-      <t>カイテイビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>改訂者</t>
-    <rPh sb="0" eb="2">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>篠﨑</t>
   </si>
   <si>
-    <t>論理名称</t>
-    <rPh sb="0" eb="2">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>物理名称</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>項番</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>改訂日</t>
-  </si>
-  <si>
-    <t>改訂者</t>
   </si>
   <si>
     <t>対象</t>
@@ -170,64 +109,28 @@
     <t>画面イメージ必須文字を⋆へ変更、IO関連の指摘箇所修正、画面項目単位マスタをコードマスタへ修正、イベント処理指摘箇所修正</t>
   </si>
   <si>
-    <t>改訂日</t>
-    <rPh sb="0" eb="2">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面イメージ</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>I/O関連図</t>
-    <rPh sb="3" eb="5">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入出庫ボタン</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウシュッコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>登録ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>パラメータ一覧</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>I/O</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>在庫商品ID</t>
@@ -240,10 +143,6 @@
   </si>
   <si>
     <t>テーブル一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>在庫情報</t>
@@ -268,83 +167,39 @@
   </si>
   <si>
     <t>ファイル一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面項目</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>項目名称</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>分類</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>必須</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>桁数</t>
-    <rPh sb="0" eb="2">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>初期値</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>テーブル</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>フィールド</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>在庫ID</t>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>非活性、入力不可</t>
-    <rPh sb="0" eb="3">
-      <t>ヒカッセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>在庫名称</t>
@@ -357,7 +212,6 @@
   </si>
   <si>
     <t>コードマスタ</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>単位ID</t>
@@ -376,29 +230,15 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>空白</t>
   </si>
   <si>
     <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入出庫数量</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>備考</t>
   </si>
   <si>
     <t>textArea</t>
@@ -413,107 +253,25 @@
     <t>閉じる</t>
   </si>
   <si>
-    <t>詳細設計書</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>画面ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>システムID</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>改訂日</t>
-    <rPh sb="0" eb="2">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>画面名称</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>入出庫登録画面</t>
   </si>
   <si>
-    <t>システム名称</t>
-    <rPh sb="4" eb="6">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>倉庫管理システム</t>
   </si>
   <si>
-    <t>改訂者</t>
-    <rPh sb="0" eb="2">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>1.初期表示処理</t>
-    <rPh sb="2" eb="4">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.1.画面制御</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.1.1.活性化制御</t>
-    <rPh sb="6" eb="8">
-      <t>カッセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>なし</t>
@@ -523,98 +281,40 @@
   </si>
   <si>
     <t>抽出項目</t>
-    <rPh sb="0" eb="2">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>T1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>T2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>単位名称</t>
-    <rPh sb="2" eb="4">
-      <t>ﾒｲｼｮｳ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>テーブル</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>結合条件</t>
-    <rPh sb="0" eb="2">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>T2.コード区分＝'001' AND T1.単位ID　＝　T2.コードID AND T2.削除フラグ＝'0'</t>
-    <rPh sb="6" eb="8">
-      <t>ｸﾌﾞﾝ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ﾀﾝｲ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ｻｸｼﾞｮ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>抽出条件</t>
-    <rPh sb="0" eb="2">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>T1.在庫ID      =    入力引数　在庫ID AND
 T1.削除フラグ　=    0</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>集約条件</t>
-    <rPh sb="0" eb="2">
-      <t>シュウヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ソート順</t>
-    <rPh sb="3" eb="4">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>2.登録ボタンクリック処理</t>
   </si>
   <si>
     <t>2.1 エラーチェック</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>・入出庫タイプ、未選択時エラーメッセージ</t>
@@ -627,23 +327,9 @@
   </si>
   <si>
     <t>入出庫数量＜在庫数量の場合エラーメッセージ</t>
-    <rPh sb="0" eb="3">
-      <t>ﾆｭｳｼｭｯｺ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ｼｭｯｺ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ｻﾞｲｺ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ｽｳﾘｮｳ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.2 入出庫情報テーブルへの登録処理</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>登録テーブル</t>
@@ -652,28 +338,16 @@
     <t>　</t>
   </si>
   <si>
-    <t>入出庫情報</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>登録項目</t>
   </si>
   <si>
     <t>入出庫回数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>←</t>
   </si>
   <si>
     <t>SELECT　MAX（入出庫回数）＋１　FROM　入出庫情報　WHERE　在庫商品ID　＝　入力引数.在庫商品ID</t>
-    <rPh sb="46" eb="48">
-      <t>ﾆｭｳﾘｮｸ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ﾋｷｽｳ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>入出庫タイプID</t>
@@ -683,7 +357,6 @@
   </si>
   <si>
     <t>画面入出庫数量への入力</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>画面備考への入力</t>
@@ -693,32 +366,24 @@
   </si>
   <si>
     <t>'0'</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>作成日時</t>
   </si>
   <si>
     <t>システム日時</t>
-    <rPh sb="4" eb="6">
-      <t>ﾆﾁｼﾞ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>作成者</t>
   </si>
   <si>
     <t>ログインユーザID</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>更新日時</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2.2. 在庫情報テーブルへの更新処理</t>
@@ -734,89 +399,46 @@
   </si>
   <si>
     <t>①入出庫タイプが入庫の場合</t>
-    <rPh sb="1" eb="4">
-      <t>ﾆｭｳｼｭｯｺ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ﾆｭｳｺ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ﾊﾞｱｲ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>在庫数量　＋　画面入出庫数量への入力</t>
-    <rPh sb="0" eb="2">
-      <t>ｻﾞｲｺ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ｽｳﾘｮｳ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>②入出庫タイプが出庫の場合</t>
-    <rPh sb="1" eb="4">
-      <t>ﾆｭｳｼｭｯｺ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ｼｭｯｺ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ﾊﾞｱｲ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>在庫数量　ー　画面入出庫数量への入力</t>
-    <rPh sb="0" eb="2">
-      <t>ｻﾞｲｺ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ｽｳﾘｮｳ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>更新条件</t>
-    <rPh sb="2" eb="4">
-      <t>ｼﾞｮｳｹﾝ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>在庫商品ID    =    入力引数　在庫ID</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>AND</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>削除フラグ　= '0'</t>
-    <rPh sb="0" eb="2">
-      <t>ｻｸｼﾞｮ</t>
-    </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.閉じるボタンクリック処理</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.1.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>「閉じる」ボダン押下、入出庫一覧画面へ遷移する。</t>
+  </si>
+  <si>
+    <t>画面イメージの入出庫タイプの選択方式をラジオボタンへ変更</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -979,6 +601,13 @@
     <font>
       <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1583,7 +1212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2148,6 +1777,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2170,50 +1803,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6145" name="Group 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001180000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
+        <xdr:cNvPr id="6145" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1600200" y="806450"/>
-          <a:ext cx="7207250" cy="228600"/>
+          <a:off x="1600200" y="800100"/>
+          <a:ext cx="7200900" cy="228600"/>
           <a:chOff x="1234" y="3654"/>
           <a:chExt cx="9721" cy="360"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6146" name="Line 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002180000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="6146" name="Line 2"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2232,20 +1851,17 @@
               <a:srgbClr val="3366FF"/>
             </a:solidFill>
             <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
           </a:ln>
         </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p/>
+        </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6147" name="Line 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003180000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="6147" name="Line 3"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2264,20 +1880,17 @@
               <a:srgbClr val="3366FF"/>
             </a:solidFill>
             <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
           </a:ln>
         </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p/>
+        </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6148" name="Line 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004180000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="6148" name="Line 4"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2296,10 +1909,13 @@
               <a:srgbClr val="3366FF"/>
             </a:solidFill>
             <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
           </a:ln>
         </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p/>
+        </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
@@ -2313,40 +1929,26 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6149" name="Group 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
+        <xdr:cNvPr id="6149" name="Group 5"/>
+        <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="1600200" y="2952750"/>
-          <a:ext cx="7207250" cy="228600"/>
+          <a:ext cx="7200900" cy="228600"/>
           <a:chOff x="1234" y="5634"/>
           <a:chExt cx="9721" cy="360"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6150" name="Line 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006180000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="6150" name="Line 6"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2365,20 +1967,17 @@
               <a:srgbClr val="3366FF"/>
             </a:solidFill>
             <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
           </a:ln>
         </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p/>
+        </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6151" name="Line 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007180000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="6151" name="Line 7"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2397,20 +1996,17 @@
               <a:srgbClr val="3366FF"/>
             </a:solidFill>
             <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
           </a:ln>
         </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p/>
+        </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6152" name="Line 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008180000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="6152" name="Line 8"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2429,10 +2025,13 @@
               <a:srgbClr val="3366FF"/>
             </a:solidFill>
             <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
           </a:ln>
         </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p/>
+        </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
@@ -2441,35 +2040,25 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="4572000" cy="4152900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E902AA42-1171-6E0E-63D1-1CBC60DE5271}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2485,34 +2074,62 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524000" cy="352425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="3295650"/>
+          <a:ext cx="1524000" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>155074</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3342</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>100263</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2553,18 +2170,9 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1508A5-CD14-3E62-9056-6278944DBFFC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0300-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2587,7 +2195,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -2598,8 +2206,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>入出庫情報一覧</a:t>
           </a:r>
@@ -2621,18 +2229,9 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B9796-5073-4F7F-B056-FFF238FECB9A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{732167B1-ADBE-4404-8B19-864A20FE75CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2655,7 +2254,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -2733,8 +2332,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
+              <a:cs typeface="Calibri" pitchFamily="34" charset="0" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>入出庫登録</a:t>
           </a:r>
@@ -3125,16 +2724,16 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="10.5" customHeight="1">
+    <row r="1" customHeight="1" ht="10">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3188,7 +2787,7 @@
       <c r="AY1" s="22"/>
       <c r="AZ1" s="23"/>
     </row>
-    <row r="2" spans="1:52" ht="10.5" customHeight="1">
+    <row r="2" customHeight="1" ht="10">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -3242,7 +2841,7 @@
       <c r="AY2" s="26"/>
       <c r="AZ2" s="27"/>
     </row>
-    <row r="3" spans="1:52" ht="10.5" customHeight="1">
+    <row r="3" customHeight="1" ht="10">
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -3296,7 +2895,7 @@
       <c r="AY3" s="26"/>
       <c r="AZ3" s="27"/>
     </row>
-    <row r="4" spans="1:52" ht="10.5" customHeight="1">
+    <row r="4" customHeight="1" ht="10">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -3350,7 +2949,7 @@
       <c r="AY4" s="26"/>
       <c r="AZ4" s="27"/>
     </row>
-    <row r="5" spans="1:52" ht="10.5" customHeight="1">
+    <row r="5" customHeight="1" ht="10">
       <c r="A5" s="25"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -3404,7 +3003,7 @@
       <c r="AY5" s="26"/>
       <c r="AZ5" s="27"/>
     </row>
-    <row r="6" spans="1:52" ht="10.5" customHeight="1">
+    <row r="6" customHeight="1" ht="10">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -3458,7 +3057,7 @@
       <c r="AY6" s="26"/>
       <c r="AZ6" s="27"/>
     </row>
-    <row r="7" spans="1:52" ht="10.5" customHeight="1">
+    <row r="7" customHeight="1" ht="10">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -3512,7 +3111,7 @@
       <c r="AY7" s="26"/>
       <c r="AZ7" s="27"/>
     </row>
-    <row r="8" spans="1:52" ht="10.5" customHeight="1">
+    <row r="8" customHeight="1" ht="10">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -3566,7 +3165,7 @@
       <c r="AY8" s="26"/>
       <c r="AZ8" s="27"/>
     </row>
-    <row r="9" spans="1:52" ht="10.5" customHeight="1">
+    <row r="9" customHeight="1" ht="10">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -3622,7 +3221,7 @@
       <c r="AY9" s="29"/>
       <c r="AZ9" s="30"/>
     </row>
-    <row r="10" spans="1:52" ht="10.5" customHeight="1">
+    <row r="10" customHeight="1" ht="10">
       <c r="A10" s="28"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -3676,7 +3275,7 @@
       <c r="AY10" s="29"/>
       <c r="AZ10" s="30"/>
     </row>
-    <row r="11" spans="1:52" ht="10.5" customHeight="1">
+    <row r="11" customHeight="1" ht="10">
       <c r="A11" s="28"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -3730,7 +3329,7 @@
       <c r="AY11" s="29"/>
       <c r="AZ11" s="30"/>
     </row>
-    <row r="12" spans="1:52" ht="10.5" customHeight="1">
+    <row r="12" customHeight="1" ht="10">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -3784,7 +3383,7 @@
       <c r="AY12" s="29"/>
       <c r="AZ12" s="30"/>
     </row>
-    <row r="13" spans="1:52" ht="10.5" customHeight="1">
+    <row r="13" customHeight="1" ht="10">
       <c r="A13" s="28"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -3838,7 +3437,7 @@
       <c r="AY13" s="29"/>
       <c r="AZ13" s="30"/>
     </row>
-    <row r="14" spans="1:52" ht="10.5" customHeight="1">
+    <row r="14" customHeight="1" ht="10">
       <c r="A14" s="28"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -3892,7 +3491,7 @@
       <c r="AY14" s="29"/>
       <c r="AZ14" s="30"/>
     </row>
-    <row r="15" spans="1:52" ht="10.5" customHeight="1">
+    <row r="15" customHeight="1" ht="10">
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -3946,7 +3545,7 @@
       <c r="AY15" s="29"/>
       <c r="AZ15" s="30"/>
     </row>
-    <row r="16" spans="1:52" ht="10.5" customHeight="1">
+    <row r="16" customHeight="1" ht="10">
       <c r="A16" s="28"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -4000,7 +3599,7 @@
       <c r="AY16" s="29"/>
       <c r="AZ16" s="30"/>
     </row>
-    <row r="17" spans="1:52" ht="10.5" customHeight="1">
+    <row r="17" customHeight="1" ht="10">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -4054,7 +3653,7 @@
       <c r="AY17" s="29"/>
       <c r="AZ17" s="30"/>
     </row>
-    <row r="18" spans="1:52" ht="10.5" customHeight="1">
+    <row r="18" customHeight="1" ht="10">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -4108,7 +3707,7 @@
       <c r="AY18" s="29"/>
       <c r="AZ18" s="30"/>
     </row>
-    <row r="19" spans="1:52" ht="10.5" customHeight="1">
+    <row r="19" customHeight="1" ht="10">
       <c r="A19" s="28"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -4162,7 +3761,7 @@
       <c r="AY19" s="29"/>
       <c r="AZ19" s="30"/>
     </row>
-    <row r="20" spans="1:52" ht="10.5" customHeight="1">
+    <row r="20" customHeight="1" ht="10">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -4216,7 +3815,7 @@
       <c r="AY20" s="29"/>
       <c r="AZ20" s="30"/>
     </row>
-    <row r="21" spans="1:52" ht="10.5" customHeight="1">
+    <row r="21" customHeight="1" ht="10">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -4270,7 +3869,7 @@
       <c r="AY21" s="26"/>
       <c r="AZ21" s="27"/>
     </row>
-    <row r="22" spans="1:52" ht="10.5" customHeight="1">
+    <row r="22" customHeight="1" ht="10">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -4324,7 +3923,7 @@
       <c r="AY22" s="26"/>
       <c r="AZ22" s="27"/>
     </row>
-    <row r="23" spans="1:52" ht="10.5" customHeight="1">
+    <row r="23" customHeight="1" ht="10">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -4378,7 +3977,7 @@
       <c r="AY23" s="26"/>
       <c r="AZ23" s="27"/>
     </row>
-    <row r="24" spans="1:52" ht="10.5" customHeight="1">
+    <row r="24" customHeight="1" ht="10">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -4432,7 +4031,7 @@
       <c r="AY24" s="26"/>
       <c r="AZ24" s="27"/>
     </row>
-    <row r="25" spans="1:52" ht="10.5" customHeight="1">
+    <row r="25" customHeight="1" ht="10">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -4486,7 +4085,7 @@
       <c r="AY25" s="26"/>
       <c r="AZ25" s="27"/>
     </row>
-    <row r="26" spans="1:52" ht="10.5" customHeight="1">
+    <row r="26" customHeight="1" ht="10">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -4540,7 +4139,7 @@
       <c r="AY26" s="26"/>
       <c r="AZ26" s="27"/>
     </row>
-    <row r="27" spans="1:52" ht="10.5" customHeight="1">
+    <row r="27" customHeight="1" ht="10">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -4594,7 +4193,7 @@
       <c r="AY27" s="26"/>
       <c r="AZ27" s="27"/>
     </row>
-    <row r="28" spans="1:52" ht="10.5" customHeight="1">
+    <row r="28" customHeight="1" ht="10">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -4648,7 +4247,7 @@
       <c r="AY28" s="26"/>
       <c r="AZ28" s="27"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -4702,7 +4301,7 @@
       <c r="AY29" s="26"/>
       <c r="AZ29" s="27"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -4756,7 +4355,7 @@
       <c r="AY30" s="26"/>
       <c r="AZ30" s="27"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -4810,7 +4409,7 @@
       <c r="AY31" s="26"/>
       <c r="AZ31" s="27"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32">
       <c r="A32" s="25"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -4864,7 +4463,7 @@
       <c r="AY32" s="26"/>
       <c r="AZ32" s="27"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -4918,7 +4517,7 @@
       <c r="AY33" s="26"/>
       <c r="AZ33" s="27"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34">
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -4971,7 +4570,7 @@
       <c r="AY34" s="26"/>
       <c r="AZ34" s="27"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -5024,7 +4623,7 @@
       <c r="AY35" s="26"/>
       <c r="AZ35" s="27"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -5077,7 +4676,7 @@
       <c r="AY36" s="26"/>
       <c r="AZ36" s="27"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -5134,7 +4733,7 @@
       <c r="AY37" s="74"/>
       <c r="AZ37" s="27"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38">
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -5187,7 +4786,7 @@
       <c r="AY38" s="74"/>
       <c r="AZ38" s="27"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39">
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -5245,7 +4844,7 @@
       <c r="AY39" s="74"/>
       <c r="AZ39" s="27"/>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -5299,7 +4898,7 @@
       <c r="AY40" s="74"/>
       <c r="AZ40" s="27"/>
     </row>
-    <row r="41" spans="1:52" ht="10.5" customHeight="1">
+    <row r="41" customHeight="1" ht="10">
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -5357,7 +4956,7 @@
       <c r="AY41" s="74"/>
       <c r="AZ41" s="27"/>
     </row>
-    <row r="42" spans="1:52" ht="10.5" customHeight="1">
+    <row r="42" customHeight="1" ht="10">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -5411,7 +5010,7 @@
       <c r="AY42" s="74"/>
       <c r="AZ42" s="27"/>
     </row>
-    <row r="43" spans="1:52" ht="10.5" customHeight="1">
+    <row r="43" customHeight="1" ht="10">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -5469,7 +5068,7 @@
       <c r="AY43" s="164"/>
       <c r="AZ43" s="27"/>
     </row>
-    <row r="44" spans="1:52" ht="10.5" customHeight="1">
+    <row r="44" customHeight="1" ht="10">
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -5523,7 +5122,7 @@
       <c r="AY44" s="164"/>
       <c r="AZ44" s="27"/>
     </row>
-    <row r="45" spans="1:52" ht="10.5" customHeight="1">
+    <row r="45" customHeight="1" ht="10">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -5581,7 +5180,7 @@
       <c r="AY45" s="74"/>
       <c r="AZ45" s="27"/>
     </row>
-    <row r="46" spans="1:52" ht="10.5" customHeight="1">
+    <row r="46" customHeight="1" ht="10">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -5635,7 +5234,7 @@
       <c r="AY46" s="74"/>
       <c r="AZ46" s="27"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -5693,7 +5292,7 @@
       <c r="AY47" s="75"/>
       <c r="AZ47" s="27"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -5747,7 +5346,7 @@
       <c r="AY48" s="75"/>
       <c r="AZ48" s="27"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49">
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
@@ -5805,7 +5404,7 @@
       <c r="AY49" s="74"/>
       <c r="AZ49" s="27"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50">
       <c r="A50" s="25"/>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -5859,7 +5458,7 @@
       <c r="AY50" s="74"/>
       <c r="AZ50" s="27"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51">
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -5913,7 +5512,7 @@
       <c r="AY51" s="26"/>
       <c r="AZ51" s="27"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52">
       <c r="A52" s="31"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -5969,21 +5568,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I9:AR22"/>
+    <mergeCell ref="AF37:AK38"/>
+    <mergeCell ref="AL37:AY38"/>
     <mergeCell ref="AF39:AK40"/>
     <mergeCell ref="AL39:AY40"/>
+    <mergeCell ref="AF41:AK42"/>
     <mergeCell ref="AL41:AY42"/>
-    <mergeCell ref="I9:AR22"/>
-    <mergeCell ref="AF41:AK42"/>
-    <mergeCell ref="AF37:AK38"/>
-    <mergeCell ref="AL37:AY38"/>
+    <mergeCell ref="AF43:AK44"/>
+    <mergeCell ref="AL43:AY44"/>
+    <mergeCell ref="AF45:AK46"/>
+    <mergeCell ref="AL45:AY46"/>
+    <mergeCell ref="AF47:AK48"/>
+    <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF49:AK50"/>
-    <mergeCell ref="AL43:AY44"/>
-    <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AL49:AY50"/>
-    <mergeCell ref="AF43:AK44"/>
-    <mergeCell ref="AF45:AK46"/>
-    <mergeCell ref="AF47:AK48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6001,15 +5600,15 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U17" sqref="U17:AZ17"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12:AZ12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="9.75" thickTop="1">
+    <row r="1" ht="9">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -6037,13 +5636,13 @@
       <c r="W1" s="86"/>
       <c r="X1" s="87"/>
       <c r="Y1" s="91" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Z1" s="91"/>
       <c r="AA1" s="91"/>
       <c r="AB1" s="91"/>
       <c r="AC1" s="92" t="str">
-        <f>IF(ISBLANK(表紙!AL43),"",(表紙!AL43))</f>
+        <f>IF(ISBLANK('表紙'!AL43),"",('表紙'!AL43))</f>
         <v>K005</v>
       </c>
       <c r="AD1" s="92"/>
@@ -6062,7 +5661,7 @@
       <c r="AO1" s="91"/>
       <c r="AP1" s="91"/>
       <c r="AQ1" s="92" t="str">
-        <f>IF(ISBLANK(表紙!AL39),"",(表紙!AL39))</f>
+        <f>IF(ISBLANK('表紙'!AL39),"",('表紙'!AL39))</f>
         <v>KS</v>
       </c>
       <c r="AR1" s="92"/>
@@ -6075,7 +5674,7 @@
       <c r="AY1" s="92"/>
       <c r="AZ1" s="92"/>
     </row>
-    <row r="2" spans="1:52" ht="9.75" thickBot="1">
+    <row r="2" ht="9">
       <c r="A2" s="88"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -6101,13 +5700,13 @@
       <c r="W2" s="89"/>
       <c r="X2" s="90"/>
       <c r="Y2" s="82" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z2" s="82"/>
       <c r="AA2" s="82"/>
       <c r="AB2" s="82"/>
       <c r="AC2" s="83" t="str">
-        <f>IF(ISBLANK(表紙!AL45),"",(表紙!AL45))</f>
+        <f>IF(ISBLANK('表紙'!AL45),"",('表紙'!AL45))</f>
         <v>入出庫登録</v>
       </c>
       <c r="AD2" s="83"/>
@@ -6126,7 +5725,7 @@
       <c r="AO2" s="82"/>
       <c r="AP2" s="82"/>
       <c r="AQ2" s="83" t="str">
-        <f>IF(ISBLANK(表紙!AL41),"",(表紙!AL41))</f>
+        <f>IF(ISBLANK('表紙'!AL41),"",('表紙'!AL41))</f>
         <v>入出庫登録システム</v>
       </c>
       <c r="AR2" s="83"/>
@@ -6139,26 +5738,26 @@
       <c r="AY2" s="83"/>
       <c r="AZ2" s="83"/>
     </row>
-    <row r="3" spans="1:52" ht="9.75" thickTop="1"/>
-    <row r="4" spans="1:52">
+    <row r="3" ht="9"/>
+    <row r="4">
       <c r="A4" s="78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="80"/>
       <c r="C4" s="78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
       <c r="F4" s="80"/>
       <c r="G4" s="78" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H4" s="79"/>
       <c r="I4" s="79"/>
       <c r="J4" s="80"/>
       <c r="K4" s="78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L4" s="79"/>
       <c r="M4" s="79"/>
@@ -6170,7 +5769,7 @@
       <c r="S4" s="79"/>
       <c r="T4" s="80"/>
       <c r="U4" s="78" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V4" s="79"/>
       <c r="W4" s="79"/>
@@ -6204,9 +5803,9 @@
       <c r="AY4" s="79"/>
       <c r="AZ4" s="79"/>
     </row>
-    <row r="5" spans="1:52" ht="10.5">
+    <row r="5" ht="10">
       <c r="A5" s="203">
-        <f t="shared" ref="A5:A52" si="0">ROW()-4</f>
+        <f>ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="203"/>
@@ -6217,7 +5816,7 @@
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
       <c r="G5" s="203" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="203"/>
       <c r="I5" s="203"/>
@@ -6233,7 +5832,7 @@
       <c r="S5" s="203"/>
       <c r="T5" s="203"/>
       <c r="U5" s="203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V5" s="203"/>
       <c r="W5" s="203"/>
@@ -6267,9 +5866,9 @@
       <c r="AY5" s="203"/>
       <c r="AZ5" s="203"/>
     </row>
-    <row r="6" spans="1:52" ht="9.4" customHeight="1">
+    <row r="6">
       <c r="A6" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="204"/>
@@ -6280,7 +5879,7 @@
       <c r="E6" s="77"/>
       <c r="F6" s="77"/>
       <c r="G6" s="203" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" s="203"/>
       <c r="I6" s="203"/>
@@ -6296,7 +5895,7 @@
       <c r="S6" s="204"/>
       <c r="T6" s="204"/>
       <c r="U6" s="204" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V6" s="204"/>
       <c r="W6" s="204"/>
@@ -6330,20 +5929,24 @@
       <c r="AY6" s="204"/>
       <c r="AZ6" s="204"/>
     </row>
-    <row r="7" spans="1:52" ht="10.5">
+    <row r="7" ht="11">
       <c r="A7" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="204"/>
-      <c r="C7" s="77"/>
+      <c r="C7" s="206">
+        <v>45063</v>
+      </c>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
+      <c r="G7" s="203" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
       <c r="K7" s="204"/>
       <c r="L7" s="204"/>
       <c r="M7" s="204"/>
@@ -6354,7 +5957,9 @@
       <c r="R7" s="204"/>
       <c r="S7" s="204"/>
       <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
+      <c r="U7" s="207" t="s">
+        <v>128</v>
+      </c>
       <c r="V7" s="204"/>
       <c r="W7" s="204"/>
       <c r="X7" s="204"/>
@@ -6387,9 +5992,9 @@
       <c r="AY7" s="204"/>
       <c r="AZ7" s="204"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8">
       <c r="A8" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>4</v>
       </c>
       <c r="B8" s="204"/>
@@ -6444,9 +6049,9 @@
       <c r="AY8" s="204"/>
       <c r="AZ8" s="204"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9">
       <c r="A9" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="204"/>
@@ -6501,9 +6106,9 @@
       <c r="AY9" s="204"/>
       <c r="AZ9" s="204"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10">
       <c r="A10" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>6</v>
       </c>
       <c r="B10" s="204"/>
@@ -6558,9 +6163,9 @@
       <c r="AY10" s="204"/>
       <c r="AZ10" s="204"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11">
       <c r="A11" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>7</v>
       </c>
       <c r="B11" s="204"/>
@@ -6615,9 +6220,9 @@
       <c r="AY11" s="204"/>
       <c r="AZ11" s="204"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12">
       <c r="A12" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>8</v>
       </c>
       <c r="B12" s="204"/>
@@ -6672,9 +6277,9 @@
       <c r="AY12" s="204"/>
       <c r="AZ12" s="204"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13">
       <c r="A13" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>9</v>
       </c>
       <c r="B13" s="204"/>
@@ -6729,9 +6334,9 @@
       <c r="AY13" s="204"/>
       <c r="AZ13" s="204"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14">
       <c r="A14" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>10</v>
       </c>
       <c r="B14" s="204"/>
@@ -6786,9 +6391,9 @@
       <c r="AY14" s="204"/>
       <c r="AZ14" s="204"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15">
       <c r="A15" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>11</v>
       </c>
       <c r="B15" s="204"/>
@@ -6843,9 +6448,9 @@
       <c r="AY15" s="204"/>
       <c r="AZ15" s="204"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16">
       <c r="A16" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>12</v>
       </c>
       <c r="B16" s="204"/>
@@ -6900,9 +6505,9 @@
       <c r="AY16" s="204"/>
       <c r="AZ16" s="204"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17">
       <c r="A17" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>13</v>
       </c>
       <c r="B17" s="204"/>
@@ -6957,9 +6562,9 @@
       <c r="AY17" s="204"/>
       <c r="AZ17" s="204"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18">
       <c r="A18" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>14</v>
       </c>
       <c r="B18" s="204"/>
@@ -7014,9 +6619,9 @@
       <c r="AY18" s="204"/>
       <c r="AZ18" s="204"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19">
       <c r="A19" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>15</v>
       </c>
       <c r="B19" s="204"/>
@@ -7071,9 +6676,9 @@
       <c r="AY19" s="204"/>
       <c r="AZ19" s="204"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20">
       <c r="A20" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>16</v>
       </c>
       <c r="B20" s="204"/>
@@ -7128,9 +6733,9 @@
       <c r="AY20" s="204"/>
       <c r="AZ20" s="204"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21">
       <c r="A21" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>17</v>
       </c>
       <c r="B21" s="204"/>
@@ -7185,9 +6790,9 @@
       <c r="AY21" s="204"/>
       <c r="AZ21" s="204"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22">
       <c r="A22" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>18</v>
       </c>
       <c r="B22" s="204"/>
@@ -7242,9 +6847,9 @@
       <c r="AY22" s="204"/>
       <c r="AZ22" s="204"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23">
       <c r="A23" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>19</v>
       </c>
       <c r="B23" s="204"/>
@@ -7299,9 +6904,9 @@
       <c r="AY23" s="204"/>
       <c r="AZ23" s="204"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24">
       <c r="A24" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>20</v>
       </c>
       <c r="B24" s="204"/>
@@ -7356,9 +6961,9 @@
       <c r="AY24" s="204"/>
       <c r="AZ24" s="204"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25">
       <c r="A25" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>21</v>
       </c>
       <c r="B25" s="204"/>
@@ -7413,9 +7018,9 @@
       <c r="AY25" s="204"/>
       <c r="AZ25" s="204"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26">
       <c r="A26" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>22</v>
       </c>
       <c r="B26" s="204"/>
@@ -7470,9 +7075,9 @@
       <c r="AY26" s="204"/>
       <c r="AZ26" s="204"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27">
       <c r="A27" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>23</v>
       </c>
       <c r="B27" s="204"/>
@@ -7527,9 +7132,9 @@
       <c r="AY27" s="204"/>
       <c r="AZ27" s="204"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28">
       <c r="A28" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>24</v>
       </c>
       <c r="B28" s="204"/>
@@ -7584,9 +7189,9 @@
       <c r="AY28" s="204"/>
       <c r="AZ28" s="204"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29">
       <c r="A29" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>25</v>
       </c>
       <c r="B29" s="204"/>
@@ -7641,9 +7246,9 @@
       <c r="AY29" s="204"/>
       <c r="AZ29" s="204"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30">
       <c r="A30" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>26</v>
       </c>
       <c r="B30" s="204"/>
@@ -7698,9 +7303,9 @@
       <c r="AY30" s="204"/>
       <c r="AZ30" s="204"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31">
       <c r="A31" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>27</v>
       </c>
       <c r="B31" s="204"/>
@@ -7755,9 +7360,9 @@
       <c r="AY31" s="204"/>
       <c r="AZ31" s="204"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32">
       <c r="A32" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>28</v>
       </c>
       <c r="B32" s="204"/>
@@ -7812,9 +7417,9 @@
       <c r="AY32" s="204"/>
       <c r="AZ32" s="204"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33">
       <c r="A33" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>29</v>
       </c>
       <c r="B33" s="204"/>
@@ -7869,9 +7474,9 @@
       <c r="AY33" s="204"/>
       <c r="AZ33" s="204"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34">
       <c r="A34" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>30</v>
       </c>
       <c r="B34" s="204"/>
@@ -7926,9 +7531,9 @@
       <c r="AY34" s="204"/>
       <c r="AZ34" s="204"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35">
       <c r="A35" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>31</v>
       </c>
       <c r="B35" s="204"/>
@@ -7983,9 +7588,9 @@
       <c r="AY35" s="204"/>
       <c r="AZ35" s="204"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36">
       <c r="A36" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>32</v>
       </c>
       <c r="B36" s="204"/>
@@ -8040,9 +7645,9 @@
       <c r="AY36" s="204"/>
       <c r="AZ36" s="204"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37">
       <c r="A37" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>33</v>
       </c>
       <c r="B37" s="204"/>
@@ -8097,9 +7702,9 @@
       <c r="AY37" s="204"/>
       <c r="AZ37" s="204"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38">
       <c r="A38" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>34</v>
       </c>
       <c r="B38" s="204"/>
@@ -8154,9 +7759,9 @@
       <c r="AY38" s="204"/>
       <c r="AZ38" s="204"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39">
       <c r="A39" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>35</v>
       </c>
       <c r="B39" s="204"/>
@@ -8211,9 +7816,9 @@
       <c r="AY39" s="204"/>
       <c r="AZ39" s="204"/>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40">
       <c r="A40" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>36</v>
       </c>
       <c r="B40" s="204"/>
@@ -8268,9 +7873,9 @@
       <c r="AY40" s="204"/>
       <c r="AZ40" s="204"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41">
       <c r="A41" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>37</v>
       </c>
       <c r="B41" s="204"/>
@@ -8325,9 +7930,9 @@
       <c r="AY41" s="204"/>
       <c r="AZ41" s="204"/>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42">
       <c r="A42" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>38</v>
       </c>
       <c r="B42" s="204"/>
@@ -8382,9 +7987,9 @@
       <c r="AY42" s="204"/>
       <c r="AZ42" s="204"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43">
       <c r="A43" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>39</v>
       </c>
       <c r="B43" s="204"/>
@@ -8439,9 +8044,9 @@
       <c r="AY43" s="204"/>
       <c r="AZ43" s="204"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44">
       <c r="A44" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>40</v>
       </c>
       <c r="B44" s="204"/>
@@ -8496,9 +8101,9 @@
       <c r="AY44" s="204"/>
       <c r="AZ44" s="204"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45">
       <c r="A45" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>41</v>
       </c>
       <c r="B45" s="204"/>
@@ -8553,9 +8158,9 @@
       <c r="AY45" s="204"/>
       <c r="AZ45" s="204"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46">
       <c r="A46" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>42</v>
       </c>
       <c r="B46" s="204"/>
@@ -8610,9 +8215,9 @@
       <c r="AY46" s="204"/>
       <c r="AZ46" s="204"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47">
       <c r="A47" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>43</v>
       </c>
       <c r="B47" s="204"/>
@@ -8667,9 +8272,9 @@
       <c r="AY47" s="204"/>
       <c r="AZ47" s="204"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48">
       <c r="A48" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>44</v>
       </c>
       <c r="B48" s="204"/>
@@ -8724,9 +8329,9 @@
       <c r="AY48" s="204"/>
       <c r="AZ48" s="204"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49">
       <c r="A49" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>45</v>
       </c>
       <c r="B49" s="204"/>
@@ -8781,9 +8386,9 @@
       <c r="AY49" s="204"/>
       <c r="AZ49" s="204"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50">
       <c r="A50" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>46</v>
       </c>
       <c r="B50" s="204"/>
@@ -8838,9 +8443,9 @@
       <c r="AY50" s="204"/>
       <c r="AZ50" s="204"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51">
       <c r="A51" s="204">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>47</v>
       </c>
       <c r="B51" s="204"/>
@@ -8895,9 +8500,9 @@
       <c r="AY51" s="204"/>
       <c r="AZ51" s="204"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52">
       <c r="A52" s="205">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>48</v>
       </c>
       <c r="B52" s="205"/>
@@ -8954,260 +8559,260 @@
     </row>
   </sheetData>
   <mergeCells count="254">
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="U51:AZ51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:T52"/>
-    <mergeCell ref="U52:AZ52"/>
-    <mergeCell ref="U49:AZ49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:T50"/>
-    <mergeCell ref="U50:AZ50"/>
     <mergeCell ref="A1:X2"/>
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="AC1:AL1"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:T49"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:T51"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:T47"/>
     <mergeCell ref="U47:AZ47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="K48:T48"/>
     <mergeCell ref="U48:AZ48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:T49"/>
+    <mergeCell ref="U49:AZ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:T50"/>
+    <mergeCell ref="U50:AZ50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:T51"/>
+    <mergeCell ref="U51:AZ51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:T52"/>
+    <mergeCell ref="U52:AZ52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -9223,16 +8828,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AZ59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AJ30" sqref="AJ30" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="9.75" thickTop="1">
+    <row r="1" ht="9">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -9246,13 +8851,13 @@
       <c r="I1" s="86"/>
       <c r="J1" s="87"/>
       <c r="K1" s="91" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L1" s="91"/>
       <c r="M1" s="91"/>
       <c r="N1" s="91"/>
       <c r="O1" s="99" t="str">
-        <f>IF(ISBLANK(表紙!AL43),"",(表紙!AL43))</f>
+        <f>IF(ISBLANK('表紙'!AL43),"",('表紙'!AL43))</f>
         <v>K005</v>
       </c>
       <c r="P1" s="99"/>
@@ -9271,7 +8876,7 @@
       <c r="AA1" s="91"/>
       <c r="AB1" s="91"/>
       <c r="AC1" s="92" t="str">
-        <f>IF(ISBLANK(表紙!AL39),"",(表紙!AL39))</f>
+        <f>IF(ISBLANK('表紙'!AL39),"",('表紙'!AL39))</f>
         <v>KS</v>
       </c>
       <c r="AD1" s="92"/>
@@ -9284,13 +8889,13 @@
       <c r="AK1" s="92"/>
       <c r="AL1" s="92"/>
       <c r="AM1" s="91" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AN1" s="91"/>
       <c r="AO1" s="91"/>
       <c r="AP1" s="91"/>
       <c r="AQ1" s="93">
-        <f>IF(ISBLANK(表紙!AL47),"",(表紙!AL47))</f>
+        <f>IF(ISBLANK('表紙'!AL47),"",('表紙'!AL47))</f>
         <v>45056</v>
       </c>
       <c r="AR1" s="93"/>
@@ -9303,7 +8908,7 @@
       <c r="AY1" s="93"/>
       <c r="AZ1" s="94"/>
     </row>
-    <row r="2" spans="1:52" ht="9.75" thickBot="1">
+    <row r="2" ht="9">
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
@@ -9315,13 +8920,13 @@
       <c r="I2" s="97"/>
       <c r="J2" s="98"/>
       <c r="K2" s="82" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L2" s="82"/>
       <c r="M2" s="82"/>
       <c r="N2" s="82"/>
       <c r="O2" s="100" t="str">
-        <f>IF(ISBLANK(表紙!AL45),"",(表紙!AL45))</f>
+        <f>IF(ISBLANK('表紙'!AL45),"",('表紙'!AL45))</f>
         <v>入出庫登録</v>
       </c>
       <c r="P2" s="100"/>
@@ -9340,7 +8945,7 @@
       <c r="AA2" s="82"/>
       <c r="AB2" s="82"/>
       <c r="AC2" s="83" t="str">
-        <f>IF(ISBLANK(表紙!AL41),"",(表紙!AL41))</f>
+        <f>IF(ISBLANK('表紙'!AL41),"",('表紙'!AL41))</f>
         <v>入出庫登録システム</v>
       </c>
       <c r="AD2" s="83"/>
@@ -9359,7 +8964,7 @@
       <c r="AO2" s="82"/>
       <c r="AP2" s="82"/>
       <c r="AQ2" s="83" t="str">
-        <f>IF(ISBLANK(表紙!AL49),"",(表紙!AL49))</f>
+        <f>IF(ISBLANK('表紙'!AL49),"",('表紙'!AL49))</f>
         <v>篠﨑</v>
       </c>
       <c r="AR2" s="83"/>
@@ -9372,12 +8977,12 @@
       <c r="AY2" s="83"/>
       <c r="AZ2" s="95"/>
     </row>
-    <row r="3" spans="1:52" ht="9.75" thickTop="1">
+    <row r="3" ht="9">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4">
       <c r="A4" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -9431,7 +9036,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="15"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9485,7 +9090,7 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="5"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -9539,7 +9144,7 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -9593,7 +9198,7 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="8"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -9647,7 +9252,7 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="8"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -9701,7 +9306,7 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="8"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -9755,7 +9360,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="8"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -9809,7 +9414,7 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="8"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -9863,7 +9468,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="8"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -9917,7 +9522,7 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="8"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -9971,7 +9576,7 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="8"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -10025,7 +9630,7 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="8"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -10079,7 +9684,7 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="8"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -10133,7 +9738,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="8"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -10187,7 +9792,7 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="8"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -10241,7 +9846,7 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="8"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -10295,7 +9900,7 @@
       <c r="AY20" s="7"/>
       <c r="AZ20" s="8"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -10348,8 +9953,12 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="AZ21" s="8"/>
-    </row>
-    <row r="22" spans="1:52">
+      <c r="BF21" s="203"/>
+      <c r="BG21" s="203"/>
+      <c r="BH21" s="203"/>
+      <c r="BI21" s="203"/>
+    </row>
+    <row r="22">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -10403,7 +10012,7 @@
       <c r="AY22" s="7"/>
       <c r="AZ22" s="8"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -10457,7 +10066,7 @@
       <c r="AY23" s="7"/>
       <c r="AZ23" s="8"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -10511,7 +10120,7 @@
       <c r="AY24" s="7"/>
       <c r="AZ24" s="8"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -10565,7 +10174,7 @@
       <c r="AY25" s="7"/>
       <c r="AZ25" s="8"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -10619,7 +10228,7 @@
       <c r="AY26" s="7"/>
       <c r="AZ26" s="8"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -10673,7 +10282,7 @@
       <c r="AY27" s="7"/>
       <c r="AZ27" s="8"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -10727,7 +10336,7 @@
       <c r="AY28" s="7"/>
       <c r="AZ28" s="8"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -10781,7 +10390,7 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="8"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -10835,7 +10444,7 @@
       <c r="AY30" s="7"/>
       <c r="AZ30" s="8"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -10889,7 +10498,7 @@
       <c r="AY31" s="7"/>
       <c r="AZ31" s="8"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -10943,7 +10552,7 @@
       <c r="AY32" s="7"/>
       <c r="AZ32" s="8"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -10997,7 +10606,7 @@
       <c r="AY33" s="7"/>
       <c r="AZ33" s="8"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -11051,7 +10660,7 @@
       <c r="AY34" s="7"/>
       <c r="AZ34" s="8"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -11105,7 +10714,7 @@
       <c r="AY35" s="7"/>
       <c r="AZ35" s="8"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -11159,7 +10768,7 @@
       <c r="AY36" s="7"/>
       <c r="AZ36" s="8"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -11213,7 +10822,7 @@
       <c r="AY37" s="7"/>
       <c r="AZ37" s="8"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -11267,7 +10876,7 @@
       <c r="AY38" s="7"/>
       <c r="AZ38" s="8"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -11321,7 +10930,7 @@
       <c r="AY39" s="7"/>
       <c r="AZ39" s="8"/>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -11375,7 +10984,7 @@
       <c r="AY40" s="7"/>
       <c r="AZ40" s="8"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -11429,7 +11038,7 @@
       <c r="AY41" s="7"/>
       <c r="AZ41" s="8"/>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -11483,7 +11092,7 @@
       <c r="AY42" s="7"/>
       <c r="AZ42" s="8"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -11537,7 +11146,7 @@
       <c r="AY43" s="7"/>
       <c r="AZ43" s="8"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -11591,7 +11200,7 @@
       <c r="AY44" s="7"/>
       <c r="AZ44" s="8"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -11645,7 +11254,7 @@
       <c r="AY45" s="7"/>
       <c r="AZ45" s="8"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -11699,7 +11308,7 @@
       <c r="AY46" s="7"/>
       <c r="AZ46" s="8"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -11753,7 +11362,7 @@
       <c r="AY47" s="7"/>
       <c r="AZ47" s="8"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -11807,7 +11416,7 @@
       <c r="AY48" s="7"/>
       <c r="AZ48" s="8"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -11861,7 +11470,7 @@
       <c r="AY49" s="7"/>
       <c r="AZ49" s="8"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -11915,7 +11524,7 @@
       <c r="AY50" s="7"/>
       <c r="AZ50" s="8"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -11969,7 +11578,7 @@
       <c r="AY51" s="7"/>
       <c r="AZ51" s="8"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -12023,7 +11632,7 @@
       <c r="AY52" s="7"/>
       <c r="AZ52" s="8"/>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -12077,7 +11686,7 @@
       <c r="AY53" s="7"/>
       <c r="AZ53" s="8"/>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -12131,7 +11740,7 @@
       <c r="AY54" s="7"/>
       <c r="AZ54" s="8"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -12185,7 +11794,7 @@
       <c r="AY55" s="7"/>
       <c r="AZ55" s="8"/>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -12239,7 +11848,7 @@
       <c r="AY56" s="7"/>
       <c r="AZ56" s="8"/>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -12293,7 +11902,7 @@
       <c r="AY57" s="7"/>
       <c r="AZ57" s="8"/>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -12347,7 +11956,7 @@
       <c r="AY58" s="7"/>
       <c r="AZ58" s="8"/>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -12402,20 +12011,21 @@
       <c r="AZ59" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AZ1"/>
     <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="O2:X2"/>
     <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="AC2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AC2:AL2"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="BF21:BI21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12436,12 +12046,12 @@
       <selection activeCell="L37" sqref="L37:U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="9.75" thickTop="1">
+    <row r="1" ht="9">
       <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
@@ -12455,13 +12065,13 @@
       <c r="I1" s="86"/>
       <c r="J1" s="87"/>
       <c r="K1" s="91" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L1" s="91"/>
       <c r="M1" s="91"/>
       <c r="N1" s="91"/>
       <c r="O1" s="99" t="str">
-        <f>IF(ISBLANK(表紙!AL43),"",(表紙!AL43))</f>
+        <f>IF(ISBLANK('表紙'!AL43),"",('表紙'!AL43))</f>
         <v>K005</v>
       </c>
       <c r="P1" s="99"/>
@@ -12480,7 +12090,7 @@
       <c r="AA1" s="91"/>
       <c r="AB1" s="91"/>
       <c r="AC1" s="92" t="str">
-        <f>IF(ISBLANK(表紙!AL39),"",(表紙!AL39))</f>
+        <f>IF(ISBLANK('表紙'!AL39),"",('表紙'!AL39))</f>
         <v>KS</v>
       </c>
       <c r="AD1" s="92"/>
@@ -12493,7 +12103,7 @@
       <c r="AK1" s="92"/>
       <c r="AL1" s="92"/>
       <c r="AM1" s="91" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AN1" s="91"/>
       <c r="AO1" s="91"/>
@@ -12511,7 +12121,7 @@
       <c r="AY1" s="93"/>
       <c r="AZ1" s="94"/>
     </row>
-    <row r="2" spans="1:52" ht="9.75" thickBot="1">
+    <row r="2" ht="9">
       <c r="A2" s="88"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -12523,13 +12133,13 @@
       <c r="I2" s="89"/>
       <c r="J2" s="90"/>
       <c r="K2" s="82" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L2" s="82"/>
       <c r="M2" s="82"/>
       <c r="N2" s="82"/>
       <c r="O2" s="100" t="str">
-        <f>IF(ISBLANK(表紙!AL45),"",(表紙!AL45))</f>
+        <f>IF(ISBLANK('表紙'!AL45),"",('表紙'!AL45))</f>
         <v>入出庫登録</v>
       </c>
       <c r="P2" s="100"/>
@@ -12548,7 +12158,7 @@
       <c r="AA2" s="82"/>
       <c r="AB2" s="82"/>
       <c r="AC2" s="83" t="str">
-        <f>IF(ISBLANK(表紙!AL41),"",(表紙!AL41))</f>
+        <f>IF(ISBLANK('表紙'!AL41),"",('表紙'!AL41))</f>
         <v>入出庫登録システム</v>
       </c>
       <c r="AD2" s="83"/>
@@ -12567,7 +12177,7 @@
       <c r="AO2" s="82"/>
       <c r="AP2" s="82"/>
       <c r="AQ2" s="83" t="str">
-        <f>IF(ISBLANK(表紙!AL49),"",(表紙!AL49))</f>
+        <f>IF(ISBLANK('表紙'!AL49),"",('表紙'!AL49))</f>
         <v>篠﨑</v>
       </c>
       <c r="AR2" s="83"/>
@@ -12580,12 +12190,12 @@
       <c r="AY2" s="83"/>
       <c r="AZ2" s="95"/>
     </row>
-    <row r="3" spans="1:52" ht="9.75" thickTop="1">
+    <row r="3" ht="9">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4">
       <c r="A4" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -12639,7 +12249,7 @@
       <c r="AY4" s="14"/>
       <c r="AZ4" s="15"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -12693,7 +12303,7 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="5"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -12747,7 +12357,7 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="8"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -12801,7 +12411,7 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="8"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -12855,7 +12465,7 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="8"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -12871,7 +12481,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -12910,7 +12520,7 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="8"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -12964,7 +12574,7 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="8"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -13018,7 +12628,7 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="8"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -13034,7 +12644,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -13074,7 +12684,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="8"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -13128,7 +12738,7 @@
       <c r="AY13" s="7"/>
       <c r="AZ13" s="8"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -13182,7 +12792,7 @@
       <c r="AY14" s="7"/>
       <c r="AZ14" s="8"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -13236,7 +12846,7 @@
       <c r="AY15" s="7"/>
       <c r="AZ15" s="8"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -13290,7 +12900,7 @@
       <c r="AY16" s="7"/>
       <c r="AZ16" s="8"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -13344,7 +12954,7 @@
       <c r="AY17" s="7"/>
       <c r="AZ17" s="8"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -13398,7 +13008,7 @@
       <c r="AY18" s="7"/>
       <c r="AZ18" s="8"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -13452,9 +13062,9 @@
       <c r="AY19" s="7"/>
       <c r="AZ19" s="8"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20">
       <c r="A20" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -13508,12 +13118,12 @@
       <c r="AY20" s="19"/>
       <c r="AZ20" s="20"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21">
       <c r="A21" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="106" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="107"/>
@@ -13525,7 +13135,7 @@
       <c r="J21" s="107"/>
       <c r="K21" s="108"/>
       <c r="L21" s="121" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M21" s="122"/>
       <c r="N21" s="122"/>
@@ -13537,11 +13147,11 @@
       <c r="T21" s="122"/>
       <c r="U21" s="123"/>
       <c r="V21" s="106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W21" s="108"/>
       <c r="X21" s="106" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y21" s="107"/>
       <c r="Z21" s="107"/>
@@ -13572,13 +13182,13 @@
       <c r="AY21" s="107"/>
       <c r="AZ21" s="108"/>
     </row>
-    <row r="22" spans="1:52" ht="9.6" customHeight="1">
+    <row r="22">
       <c r="A22" s="12">
         <f>ROW()-21</f>
         <v>1</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
@@ -13590,7 +13200,7 @@
       <c r="J22" s="110"/>
       <c r="K22" s="110"/>
       <c r="L22" s="119" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M22" s="119"/>
       <c r="N22" s="119"/>
@@ -13602,7 +13212,7 @@
       <c r="T22" s="119"/>
       <c r="U22" s="119"/>
       <c r="V22" s="104" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W22" s="105"/>
       <c r="X22" s="101"/>
@@ -13635,9 +13245,9 @@
       <c r="AY22" s="102"/>
       <c r="AZ22" s="103"/>
     </row>
-    <row r="23" spans="1:52" ht="9.6" customHeight="1">
+    <row r="23">
       <c r="A23" s="59">
-        <f t="shared" ref="A23:A30" si="0">ROW()-21</f>
+        <f>ROW()-21</f>
         <v>2</v>
       </c>
       <c r="B23" s="111"/>
@@ -13692,9 +13302,9 @@
       <c r="AY23" s="102"/>
       <c r="AZ23" s="103"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24">
       <c r="A24" s="59">
-        <f t="shared" si="0"/>
+        <f>ROW()-21</f>
         <v>3</v>
       </c>
       <c r="B24" s="111"/>
@@ -13749,9 +13359,9 @@
       <c r="AY24" s="102"/>
       <c r="AZ24" s="103"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25">
       <c r="A25" s="59">
-        <f t="shared" si="0"/>
+        <f>ROW()-21</f>
         <v>4</v>
       </c>
       <c r="B25" s="111"/>
@@ -13806,9 +13416,9 @@
       <c r="AY25" s="102"/>
       <c r="AZ25" s="103"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26">
       <c r="A26" s="59">
-        <f t="shared" si="0"/>
+        <f>ROW()-21</f>
         <v>5</v>
       </c>
       <c r="B26" s="111"/>
@@ -13863,9 +13473,9 @@
       <c r="AY26" s="102"/>
       <c r="AZ26" s="103"/>
     </row>
-    <row r="27" spans="1:52" ht="9.6" customHeight="1">
+    <row r="27">
       <c r="A27" s="59">
-        <f t="shared" si="0"/>
+        <f>ROW()-21</f>
         <v>6</v>
       </c>
       <c r="B27" s="111"/>
@@ -13920,9 +13530,9 @@
       <c r="AY27" s="102"/>
       <c r="AZ27" s="103"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28">
       <c r="A28" s="59">
-        <f t="shared" si="0"/>
+        <f>ROW()-21</f>
         <v>7</v>
       </c>
       <c r="B28" s="111"/>
@@ -13977,9 +13587,9 @@
       <c r="AY28" s="102"/>
       <c r="AZ28" s="103"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29">
       <c r="A29" s="59">
-        <f t="shared" si="0"/>
+        <f>ROW()-21</f>
         <v>8</v>
       </c>
       <c r="B29" s="111"/>
@@ -14034,9 +13644,9 @@
       <c r="AY29" s="102"/>
       <c r="AZ29" s="103"/>
     </row>
-    <row r="30" spans="1:52" ht="9.6" customHeight="1">
+    <row r="30">
       <c r="A30" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-21</f>
         <v>9</v>
       </c>
       <c r="B30" s="116"/>
@@ -14091,9 +13701,9 @@
       <c r="AY30" s="102"/>
       <c r="AZ30" s="103"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31">
       <c r="A31" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -14147,12 +13757,12 @@
       <c r="AY31" s="19"/>
       <c r="AZ31" s="20"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32">
       <c r="A32" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C32" s="107"/>
       <c r="D32" s="107"/>
@@ -14164,7 +13774,7 @@
       <c r="J32" s="107"/>
       <c r="K32" s="108"/>
       <c r="L32" s="106" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M32" s="107"/>
       <c r="N32" s="107"/>
@@ -14176,11 +13786,11 @@
       <c r="T32" s="107"/>
       <c r="U32" s="108"/>
       <c r="V32" s="106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W32" s="108"/>
       <c r="X32" s="106" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y32" s="107"/>
       <c r="Z32" s="107"/>
@@ -14211,13 +13821,13 @@
       <c r="AY32" s="107"/>
       <c r="AZ32" s="108"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33">
       <c r="A33" s="12">
         <f>ROW()-32</f>
         <v>1</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33" s="102"/>
       <c r="D33" s="102"/>
@@ -14229,7 +13839,7 @@
       <c r="J33" s="102"/>
       <c r="K33" s="103"/>
       <c r="L33" s="101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M33" s="102"/>
       <c r="N33" s="102"/>
@@ -14241,7 +13851,7 @@
       <c r="T33" s="102"/>
       <c r="U33" s="103"/>
       <c r="V33" s="104" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W33" s="105"/>
       <c r="X33" s="101"/>
@@ -14274,13 +13884,13 @@
       <c r="AY33" s="102"/>
       <c r="AZ33" s="103"/>
     </row>
-    <row r="34" spans="1:52" ht="9.6" customHeight="1">
+    <row r="34">
       <c r="A34" s="12">
-        <f t="shared" ref="A34:A41" si="1">ROW()-32</f>
+        <f>ROW()-32</f>
         <v>2</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C34" s="102"/>
       <c r="D34" s="102"/>
@@ -14292,7 +13902,7 @@
       <c r="J34" s="102"/>
       <c r="K34" s="103"/>
       <c r="L34" s="101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M34" s="102"/>
       <c r="N34" s="102"/>
@@ -14304,7 +13914,7 @@
       <c r="T34" s="102"/>
       <c r="U34" s="103"/>
       <c r="V34" s="170" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W34" s="105"/>
       <c r="X34" s="101"/>
@@ -14337,13 +13947,13 @@
       <c r="AY34" s="102"/>
       <c r="AZ34" s="103"/>
     </row>
-    <row r="35" spans="1:52" ht="9.6" customHeight="1">
+    <row r="35">
       <c r="A35" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-32</f>
         <v>3</v>
       </c>
       <c r="B35" s="165" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" s="166"/>
       <c r="D35" s="166"/>
@@ -14355,7 +13965,7 @@
       <c r="J35" s="166"/>
       <c r="K35" s="167"/>
       <c r="L35" s="165" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M35" s="166"/>
       <c r="N35" s="166"/>
@@ -14367,7 +13977,7 @@
       <c r="T35" s="166"/>
       <c r="U35" s="167"/>
       <c r="V35" s="168" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W35" s="169"/>
       <c r="X35" s="101"/>
@@ -14400,9 +14010,9 @@
       <c r="AY35" s="102"/>
       <c r="AZ35" s="103"/>
     </row>
-    <row r="36" spans="1:52" ht="9.6" customHeight="1">
+    <row r="36">
       <c r="A36" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-32</f>
         <v>4</v>
       </c>
       <c r="B36" s="101"/>
@@ -14457,9 +14067,9 @@
       <c r="AY36" s="102"/>
       <c r="AZ36" s="103"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37">
       <c r="A37" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-32</f>
         <v>5</v>
       </c>
       <c r="B37" s="101"/>
@@ -14514,9 +14124,9 @@
       <c r="AY37" s="102"/>
       <c r="AZ37" s="103"/>
     </row>
-    <row r="38" spans="1:52" ht="9.6" customHeight="1">
+    <row r="38">
       <c r="A38" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-32</f>
         <v>6</v>
       </c>
       <c r="B38" s="101"/>
@@ -14571,9 +14181,9 @@
       <c r="AY38" s="102"/>
       <c r="AZ38" s="103"/>
     </row>
-    <row r="39" spans="1:52" ht="9.6" customHeight="1">
+    <row r="39">
       <c r="A39" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-32</f>
         <v>7</v>
       </c>
       <c r="B39" s="101"/>
@@ -14628,9 +14238,9 @@
       <c r="AY39" s="102"/>
       <c r="AZ39" s="103"/>
     </row>
-    <row r="40" spans="1:52" ht="9.6" customHeight="1">
+    <row r="40">
       <c r="A40" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-32</f>
         <v>8</v>
       </c>
       <c r="B40" s="101"/>
@@ -14685,9 +14295,9 @@
       <c r="AY40" s="102"/>
       <c r="AZ40" s="103"/>
     </row>
-    <row r="41" spans="1:52" ht="9.6" customHeight="1">
+    <row r="41">
       <c r="A41" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-32</f>
         <v>9</v>
       </c>
       <c r="B41" s="101"/>
@@ -14742,9 +14352,9 @@
       <c r="AY41" s="102"/>
       <c r="AZ41" s="103"/>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42">
       <c r="A42" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -14798,12 +14408,12 @@
       <c r="AY42" s="19"/>
       <c r="AZ42" s="20"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43">
       <c r="A43" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B43" s="106" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C43" s="107"/>
       <c r="D43" s="107"/>
@@ -14815,7 +14425,7 @@
       <c r="J43" s="107"/>
       <c r="K43" s="108"/>
       <c r="L43" s="106" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M43" s="107"/>
       <c r="N43" s="107"/>
@@ -14827,11 +14437,11 @@
       <c r="T43" s="107"/>
       <c r="U43" s="108"/>
       <c r="V43" s="106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W43" s="108"/>
       <c r="X43" s="106" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y43" s="107"/>
       <c r="Z43" s="107"/>
@@ -14862,7 +14472,7 @@
       <c r="AY43" s="107"/>
       <c r="AZ43" s="108"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44">
       <c r="A44" s="12">
         <f>ROW()-43</f>
         <v>1</v>
@@ -14919,9 +14529,9 @@
       <c r="AY44" s="102"/>
       <c r="AZ44" s="103"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45">
       <c r="A45" s="12">
-        <f t="shared" ref="A45:A52" si="2">ROW()-43</f>
+        <f>ROW()-43</f>
         <v>2</v>
       </c>
       <c r="B45" s="101"/>
@@ -14976,9 +14586,9 @@
       <c r="AY45" s="102"/>
       <c r="AZ45" s="103"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46">
       <c r="A46" s="12">
-        <f t="shared" si="2"/>
+        <f>ROW()-43</f>
         <v>3</v>
       </c>
       <c r="B46" s="101"/>
@@ -15033,9 +14643,9 @@
       <c r="AY46" s="102"/>
       <c r="AZ46" s="103"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47">
       <c r="A47" s="12">
-        <f t="shared" si="2"/>
+        <f>ROW()-43</f>
         <v>4</v>
       </c>
       <c r="B47" s="101"/>
@@ -15090,9 +14700,9 @@
       <c r="AY47" s="102"/>
       <c r="AZ47" s="103"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48">
       <c r="A48" s="12">
-        <f t="shared" si="2"/>
+        <f>ROW()-43</f>
         <v>5</v>
       </c>
       <c r="B48" s="101"/>
@@ -15147,9 +14757,9 @@
       <c r="AY48" s="102"/>
       <c r="AZ48" s="103"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49">
       <c r="A49" s="12">
-        <f t="shared" si="2"/>
+        <f>ROW()-43</f>
         <v>6</v>
       </c>
       <c r="B49" s="101"/>
@@ -15204,9 +14814,9 @@
       <c r="AY49" s="102"/>
       <c r="AZ49" s="103"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50">
       <c r="A50" s="12">
-        <f t="shared" si="2"/>
+        <f>ROW()-43</f>
         <v>7</v>
       </c>
       <c r="B50" s="101"/>
@@ -15261,9 +14871,9 @@
       <c r="AY50" s="102"/>
       <c r="AZ50" s="103"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51">
       <c r="A51" s="12">
-        <f t="shared" si="2"/>
+        <f>ROW()-43</f>
         <v>8</v>
       </c>
       <c r="B51" s="101"/>
@@ -15318,9 +14928,9 @@
       <c r="AY51" s="102"/>
       <c r="AZ51" s="103"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52">
       <c r="A52" s="12">
-        <f t="shared" si="2"/>
+        <f>ROW()-43</f>
         <v>9</v>
       </c>
       <c r="B52" s="101"/>
@@ -15377,139 +14987,139 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="X40:AZ40"/>
-    <mergeCell ref="X41:AZ41"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="X38:AZ38"/>
-    <mergeCell ref="X39:AZ39"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="L21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AZ21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="L22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AZ22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="L23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:AZ23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="L24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:AZ24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="L25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:AZ25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="L26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:AZ26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="L27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:AZ27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="L28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:AZ28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="L29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:AZ29"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="L30:U30"/>
+    <mergeCell ref="V30:W30"/>
     <mergeCell ref="X30:AZ30"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="L32:U32"/>
+    <mergeCell ref="V32:W32"/>
     <mergeCell ref="X32:AZ32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:W33"/>
     <mergeCell ref="X33:AZ33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:W34"/>
     <mergeCell ref="X34:AZ34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="L35:U35"/>
+    <mergeCell ref="V35:W35"/>
     <mergeCell ref="X35:AZ35"/>
     <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:AZ36"/>
     <mergeCell ref="B37:K37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:AZ37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:AZ38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="L39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:AZ39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="L40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:AZ40"/>
     <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="X36:AZ36"/>
-    <mergeCell ref="X37:AZ37"/>
-    <mergeCell ref="L39:U39"/>
-    <mergeCell ref="L40:U40"/>
     <mergeCell ref="L41:U41"/>
-    <mergeCell ref="V40:W40"/>
     <mergeCell ref="V41:W41"/>
-    <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AC2:AL2"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="L21:U21"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="L37:U37"/>
-    <mergeCell ref="L38:U38"/>
-    <mergeCell ref="L52:U52"/>
-    <mergeCell ref="X52:AZ52"/>
+    <mergeCell ref="X41:AZ41"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="L43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:AZ43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="L44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:AZ44"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="L45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:AZ45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="L46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:AZ46"/>
     <mergeCell ref="B47:K47"/>
+    <mergeCell ref="L47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:AZ47"/>
     <mergeCell ref="B48:K48"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="L48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:AZ48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="L49:U49"/>
+    <mergeCell ref="V49:W49"/>
     <mergeCell ref="X49:AZ49"/>
-    <mergeCell ref="X50:AZ50"/>
-    <mergeCell ref="X51:AZ51"/>
-    <mergeCell ref="B49:K49"/>
     <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="L51:U51"/>
     <mergeCell ref="L50:U50"/>
     <mergeCell ref="V50:W50"/>
-    <mergeCell ref="L47:U47"/>
-    <mergeCell ref="L48:U48"/>
-    <mergeCell ref="L49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="L23:U23"/>
-    <mergeCell ref="L24:U24"/>
-    <mergeCell ref="L25:U25"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="L43:U43"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="L28:U28"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X21:AZ21"/>
-    <mergeCell ref="X22:AZ22"/>
-    <mergeCell ref="X23:AZ23"/>
-    <mergeCell ref="X24:AZ24"/>
-    <mergeCell ref="X25:AZ25"/>
-    <mergeCell ref="X26:AZ26"/>
-    <mergeCell ref="X27:AZ27"/>
-    <mergeCell ref="X28:AZ28"/>
-    <mergeCell ref="X29:AZ29"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="L32:U32"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="L29:U29"/>
-    <mergeCell ref="L30:U30"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="L22:U22"/>
-    <mergeCell ref="L26:U26"/>
-    <mergeCell ref="L27:U27"/>
-    <mergeCell ref="X47:AZ47"/>
-    <mergeCell ref="X48:AZ48"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="X45:AZ45"/>
-    <mergeCell ref="X46:AZ46"/>
-    <mergeCell ref="L46:U46"/>
-    <mergeCell ref="X43:AZ43"/>
-    <mergeCell ref="X44:AZ44"/>
-    <mergeCell ref="L45:U45"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="L44:U44"/>
+    <mergeCell ref="X50:AZ50"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="L51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:AZ51"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="L52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:AZ52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15532,12 +15142,12 @@
       <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1">
       <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
@@ -15554,13 +15164,13 @@
       <c r="L1" s="152"/>
       <c r="M1" s="153"/>
       <c r="N1" s="143" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O1" s="144"/>
       <c r="P1" s="144"/>
       <c r="Q1" s="145"/>
       <c r="R1" s="155" t="str">
-        <f>IF(ISBLANK(表紙!AL43),"",(表紙!AL43))</f>
+        <f>IF(ISBLANK('表紙'!AL43),"",('表紙'!AL43))</f>
         <v>K005</v>
       </c>
       <c r="S1" s="156"/>
@@ -15579,7 +15189,7 @@
       <c r="AD1" s="144"/>
       <c r="AE1" s="145"/>
       <c r="AF1" s="137" t="str">
-        <f>IF(ISBLANK(表紙!AL39),"",(表紙!AL39))</f>
+        <f>IF(ISBLANK('表紙'!AL39),"",('表紙'!AL39))</f>
         <v>KS</v>
       </c>
       <c r="AG1" s="138"/>
@@ -15592,13 +15202,13 @@
       <c r="AN1" s="138"/>
       <c r="AO1" s="139"/>
       <c r="AP1" s="143" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AQ1" s="144"/>
       <c r="AR1" s="144"/>
       <c r="AS1" s="145"/>
       <c r="AT1" s="140">
-        <f>IF(ISBLANK(表紙!AL47),"",(表紙!AL47))</f>
+        <f>IF(ISBLANK('表紙'!AL47),"",('表紙'!AL47))</f>
         <v>45056</v>
       </c>
       <c r="AU1" s="141"/>
@@ -15611,7 +15221,7 @@
       <c r="BB1" s="141"/>
       <c r="BC1" s="142"/>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2">
       <c r="A2" s="154"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
@@ -15626,13 +15236,13 @@
       <c r="L2" s="97"/>
       <c r="M2" s="98"/>
       <c r="N2" s="143" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O2" s="144"/>
       <c r="P2" s="144"/>
       <c r="Q2" s="145"/>
       <c r="R2" s="155" t="str">
-        <f>IF(ISBLANK(表紙!AL45),"",(表紙!AL45))</f>
+        <f>IF(ISBLANK('表紙'!AL45),"",('表紙'!AL45))</f>
         <v>入出庫登録</v>
       </c>
       <c r="S2" s="156"/>
@@ -15651,7 +15261,7 @@
       <c r="AD2" s="144"/>
       <c r="AE2" s="145"/>
       <c r="AF2" s="137" t="str">
-        <f>IF(ISBLANK(表紙!AL41),"",(表紙!AL41))</f>
+        <f>IF(ISBLANK('表紙'!AL41),"",('表紙'!AL41))</f>
         <v>入出庫登録システム</v>
       </c>
       <c r="AG2" s="138"/>
@@ -15670,7 +15280,7 @@
       <c r="AR2" s="144"/>
       <c r="AS2" s="145"/>
       <c r="AT2" s="137" t="str">
-        <f>IF(ISBLANK(表紙!AL49),"",(表紙!AL49))</f>
+        <f>IF(ISBLANK('表紙'!AL49),"",('表紙'!AL49))</f>
         <v>篠﨑</v>
       </c>
       <c r="AU2" s="138"/>
@@ -15683,12 +15293,12 @@
       <c r="BB2" s="138"/>
       <c r="BC2" s="139"/>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4">
       <c r="A4" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -15745,12 +15355,12 @@
       <c r="BB4" s="14"/>
       <c r="BC4" s="15"/>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5">
       <c r="A5" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="146"/>
       <c r="D5" s="146"/>
@@ -15762,22 +15372,22 @@
       <c r="J5" s="146"/>
       <c r="K5" s="146"/>
       <c r="L5" s="134" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M5" s="134"/>
       <c r="N5" s="134"/>
       <c r="O5" s="134"/>
       <c r="P5" s="134"/>
       <c r="Q5" s="134" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R5" s="134"/>
       <c r="S5" s="134" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T5" s="134"/>
       <c r="U5" s="134" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V5" s="134"/>
       <c r="W5" s="134"/>
@@ -15786,7 +15396,7 @@
       <c r="Z5" s="134"/>
       <c r="AA5" s="134"/>
       <c r="AB5" s="134" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="134"/>
       <c r="AD5" s="134"/>
@@ -15796,7 +15406,7 @@
       <c r="AH5" s="134"/>
       <c r="AI5" s="134"/>
       <c r="AJ5" s="134" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AK5" s="134"/>
       <c r="AL5" s="134"/>
@@ -15806,7 +15416,7 @@
       <c r="AP5" s="134"/>
       <c r="AQ5" s="134"/>
       <c r="AR5" s="146" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AS5" s="146"/>
       <c r="AT5" s="146"/>
@@ -15820,13 +15430,13 @@
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
     </row>
-    <row r="6" spans="1:55" ht="9.6" customHeight="1">
+    <row r="6">
       <c r="A6" s="12">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -15838,7 +15448,7 @@
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
       <c r="L6" s="111" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="111"/>
       <c r="N6" s="111"/>
@@ -15858,7 +15468,7 @@
       <c r="Z6" s="135"/>
       <c r="AA6" s="135"/>
       <c r="AB6" s="112" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC6" s="112"/>
       <c r="AD6" s="112"/>
@@ -15868,7 +15478,7 @@
       <c r="AH6" s="112"/>
       <c r="AI6" s="112"/>
       <c r="AJ6" s="147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AK6" s="147"/>
       <c r="AL6" s="147"/>
@@ -15878,7 +15488,7 @@
       <c r="AP6" s="147"/>
       <c r="AQ6" s="147"/>
       <c r="AR6" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS6" s="124"/>
       <c r="AT6" s="124"/>
@@ -15892,13 +15502,13 @@
       <c r="BB6" s="124"/>
       <c r="BC6" s="124"/>
     </row>
-    <row r="7" spans="1:55" ht="10.5">
+    <row r="7" ht="10">
       <c r="A7" s="12">
-        <f t="shared" ref="A7:A54" si="0">ROW()-5</f>
+        <f>ROW()-5</f>
         <v>2</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -15910,7 +15520,7 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="111" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
@@ -15930,7 +15540,7 @@
       <c r="Z7" s="135"/>
       <c r="AA7" s="135"/>
       <c r="AB7" s="112" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC7" s="112"/>
       <c r="AD7" s="112"/>
@@ -15940,7 +15550,7 @@
       <c r="AH7" s="112"/>
       <c r="AI7" s="112"/>
       <c r="AJ7" s="147" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AK7" s="147"/>
       <c r="AL7" s="147"/>
@@ -15950,7 +15560,7 @@
       <c r="AP7" s="147"/>
       <c r="AQ7" s="147"/>
       <c r="AR7" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS7" s="124"/>
       <c r="AT7" s="124"/>
@@ -15964,13 +15574,13 @@
       <c r="BB7" s="124"/>
       <c r="BC7" s="124"/>
     </row>
-    <row r="8" spans="1:55" ht="9.6" customHeight="1">
+    <row r="8">
       <c r="A8" s="69">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>3</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
@@ -15982,7 +15592,7 @@
       <c r="J8" s="71"/>
       <c r="K8" s="71"/>
       <c r="L8" s="129" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M8" s="129"/>
       <c r="N8" s="129"/>
@@ -16002,7 +15612,7 @@
       <c r="Z8" s="136"/>
       <c r="AA8" s="136"/>
       <c r="AB8" s="112" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AC8" s="112"/>
       <c r="AD8" s="112"/>
@@ -16012,7 +15622,7 @@
       <c r="AH8" s="112"/>
       <c r="AI8" s="112"/>
       <c r="AJ8" s="147" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AK8" s="147"/>
       <c r="AL8" s="147"/>
@@ -16022,7 +15632,7 @@
       <c r="AP8" s="147"/>
       <c r="AQ8" s="147"/>
       <c r="AR8" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS8" s="124"/>
       <c r="AT8" s="124"/>
@@ -16036,13 +15646,13 @@
       <c r="BB8" s="124"/>
       <c r="BC8" s="124"/>
     </row>
-    <row r="9" spans="1:55" ht="9.6" customHeight="1">
+    <row r="9">
       <c r="A9" s="12">
         <f>ROW()-5</f>
         <v>4</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -16054,7 +15664,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="111" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M9" s="111"/>
       <c r="N9" s="111"/>
@@ -16074,7 +15684,7 @@
       <c r="Z9" s="135"/>
       <c r="AA9" s="135"/>
       <c r="AB9" s="112" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC9" s="112"/>
       <c r="AD9" s="112"/>
@@ -16084,7 +15694,7 @@
       <c r="AH9" s="112"/>
       <c r="AI9" s="112"/>
       <c r="AJ9" s="147" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AK9" s="147"/>
       <c r="AL9" s="147"/>
@@ -16094,7 +15704,7 @@
       <c r="AP9" s="147"/>
       <c r="AQ9" s="147"/>
       <c r="AR9" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS9" s="124"/>
       <c r="AT9" s="124"/>
@@ -16108,13 +15718,13 @@
       <c r="BB9" s="124"/>
       <c r="BC9" s="124"/>
     </row>
-    <row r="10" spans="1:55" ht="10.5">
+    <row r="10" ht="10">
       <c r="A10" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -16126,22 +15736,22 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="149" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M10" s="149"/>
       <c r="N10" s="149"/>
       <c r="O10" s="149"/>
       <c r="P10" s="149"/>
       <c r="Q10" s="130" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R10" s="130"/>
       <c r="S10" s="130" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T10" s="130"/>
       <c r="U10" s="111" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V10" s="111"/>
       <c r="W10" s="111"/>
@@ -16150,7 +15760,7 @@
       <c r="Z10" s="111"/>
       <c r="AA10" s="111"/>
       <c r="AB10" s="171" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AC10" s="171"/>
       <c r="AD10" s="171"/>
@@ -16160,7 +15770,7 @@
       <c r="AH10" s="171"/>
       <c r="AI10" s="171"/>
       <c r="AJ10" s="172" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AK10" s="172"/>
       <c r="AL10" s="172"/>
@@ -16182,13 +15792,13 @@
       <c r="BB10" s="124"/>
       <c r="BC10" s="124"/>
     </row>
-    <row r="11" spans="1:55" ht="9.4" customHeight="1">
+    <row r="11">
       <c r="A11" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>6</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -16200,14 +15810,14 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="149" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M11" s="149"/>
       <c r="N11" s="149"/>
       <c r="O11" s="149"/>
       <c r="P11" s="149"/>
       <c r="Q11" s="130" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R11" s="130"/>
       <c r="S11" s="130">
@@ -16215,7 +15825,7 @@
       </c>
       <c r="T11" s="130"/>
       <c r="U11" s="111" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V11" s="111"/>
       <c r="W11" s="111"/>
@@ -16224,7 +15834,7 @@
       <c r="Z11" s="111"/>
       <c r="AA11" s="111"/>
       <c r="AB11" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AC11" s="148"/>
       <c r="AD11" s="148"/>
@@ -16234,7 +15844,7 @@
       <c r="AH11" s="148"/>
       <c r="AI11" s="148"/>
       <c r="AJ11" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AK11" s="148"/>
       <c r="AL11" s="148"/>
@@ -16256,13 +15866,13 @@
       <c r="BB11" s="124"/>
       <c r="BC11" s="124"/>
     </row>
-    <row r="12" spans="1:55" ht="9.4" customHeight="1">
+    <row r="12">
       <c r="A12" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>7</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -16274,7 +15884,7 @@
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="150" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M12" s="150"/>
       <c r="N12" s="150"/>
@@ -16287,7 +15897,7 @@
       </c>
       <c r="T12" s="130"/>
       <c r="U12" s="111" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V12" s="111"/>
       <c r="W12" s="111"/>
@@ -16296,7 +15906,7 @@
       <c r="Z12" s="111"/>
       <c r="AA12" s="111"/>
       <c r="AB12" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AC12" s="148"/>
       <c r="AD12" s="148"/>
@@ -16306,7 +15916,7 @@
       <c r="AH12" s="148"/>
       <c r="AI12" s="148"/>
       <c r="AJ12" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AK12" s="148"/>
       <c r="AL12" s="148"/>
@@ -16328,13 +15938,13 @@
       <c r="BB12" s="124"/>
       <c r="BC12" s="124"/>
     </row>
-    <row r="13" spans="1:55" ht="10.5">
+    <row r="13" ht="10">
       <c r="A13" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>8</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -16346,7 +15956,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="111" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M13" s="111"/>
       <c r="N13" s="111"/>
@@ -16355,11 +15965,11 @@
       <c r="Q13" s="130"/>
       <c r="R13" s="130"/>
       <c r="S13" s="130" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T13" s="130"/>
       <c r="U13" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="V13" s="148"/>
       <c r="W13" s="148"/>
@@ -16368,7 +15978,7 @@
       <c r="Z13" s="148"/>
       <c r="AA13" s="148"/>
       <c r="AB13" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AC13" s="148"/>
       <c r="AD13" s="148"/>
@@ -16378,7 +15988,7 @@
       <c r="AH13" s="148"/>
       <c r="AI13" s="148"/>
       <c r="AJ13" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AK13" s="148"/>
       <c r="AL13" s="148"/>
@@ -16400,13 +16010,13 @@
       <c r="BB13" s="124"/>
       <c r="BC13" s="124"/>
     </row>
-    <row r="14" spans="1:55" ht="9.6" customHeight="1">
+    <row r="14">
       <c r="A14" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>9</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -16418,7 +16028,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="111" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M14" s="111"/>
       <c r="N14" s="111"/>
@@ -16427,11 +16037,11 @@
       <c r="Q14" s="130"/>
       <c r="R14" s="130"/>
       <c r="S14" s="130" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T14" s="130"/>
       <c r="U14" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="V14" s="148"/>
       <c r="W14" s="148"/>
@@ -16440,7 +16050,7 @@
       <c r="Z14" s="148"/>
       <c r="AA14" s="148"/>
       <c r="AB14" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AC14" s="148"/>
       <c r="AD14" s="148"/>
@@ -16450,7 +16060,7 @@
       <c r="AH14" s="148"/>
       <c r="AI14" s="148"/>
       <c r="AJ14" s="148" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AK14" s="148"/>
       <c r="AL14" s="148"/>
@@ -16472,9 +16082,9 @@
       <c r="BB14" s="124"/>
       <c r="BC14" s="124"/>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15">
       <c r="A15" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>10</v>
       </c>
       <c r="B15" s="34"/>
@@ -16532,9 +16142,9 @@
       <c r="BB15" s="124"/>
       <c r="BC15" s="124"/>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16">
       <c r="A16" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>11</v>
       </c>
       <c r="B16" s="34"/>
@@ -16592,9 +16202,9 @@
       <c r="BB16" s="124"/>
       <c r="BC16" s="124"/>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17">
       <c r="A17" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>12</v>
       </c>
       <c r="B17" s="34"/>
@@ -16652,9 +16262,9 @@
       <c r="BB17" s="124"/>
       <c r="BC17" s="124"/>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18">
       <c r="A18" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>13</v>
       </c>
       <c r="B18" s="34"/>
@@ -16712,9 +16322,9 @@
       <c r="BB18" s="124"/>
       <c r="BC18" s="124"/>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19">
       <c r="A19" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>14</v>
       </c>
       <c r="B19" s="34"/>
@@ -16772,9 +16382,9 @@
       <c r="BB19" s="124"/>
       <c r="BC19" s="124"/>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20">
       <c r="A20" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>15</v>
       </c>
       <c r="B20" s="34"/>
@@ -16832,9 +16442,9 @@
       <c r="BB20" s="124"/>
       <c r="BC20" s="124"/>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21">
       <c r="A21" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>16</v>
       </c>
       <c r="B21" s="34"/>
@@ -16892,9 +16502,9 @@
       <c r="BB21" s="124"/>
       <c r="BC21" s="124"/>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22">
       <c r="A22" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>17</v>
       </c>
       <c r="B22" s="34"/>
@@ -16952,9 +16562,9 @@
       <c r="BB22" s="124"/>
       <c r="BC22" s="124"/>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23">
       <c r="A23" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>18</v>
       </c>
       <c r="B23" s="34"/>
@@ -17012,9 +16622,9 @@
       <c r="BB23" s="124"/>
       <c r="BC23" s="124"/>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24">
       <c r="A24" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>19</v>
       </c>
       <c r="B24" s="34"/>
@@ -17072,9 +16682,9 @@
       <c r="BB24" s="124"/>
       <c r="BC24" s="124"/>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>20</v>
       </c>
       <c r="B25" s="34"/>
@@ -17132,9 +16742,9 @@
       <c r="BB25" s="124"/>
       <c r="BC25" s="124"/>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>21</v>
       </c>
       <c r="B26" s="34"/>
@@ -17192,9 +16802,9 @@
       <c r="BB26" s="124"/>
       <c r="BC26" s="124"/>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>22</v>
       </c>
       <c r="B27" s="34"/>
@@ -17252,9 +16862,9 @@
       <c r="BB27" s="124"/>
       <c r="BC27" s="124"/>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>23</v>
       </c>
       <c r="B28" s="124"/>
@@ -17312,9 +16922,9 @@
       <c r="BB28" s="124"/>
       <c r="BC28" s="124"/>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>24</v>
       </c>
       <c r="B29" s="124"/>
@@ -17372,9 +16982,9 @@
       <c r="BB29" s="124"/>
       <c r="BC29" s="124"/>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30">
       <c r="A30" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>25</v>
       </c>
       <c r="B30" s="124"/>
@@ -17432,9 +17042,9 @@
       <c r="BB30" s="124"/>
       <c r="BC30" s="124"/>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31">
       <c r="A31" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>26</v>
       </c>
       <c r="B31" s="124"/>
@@ -17492,9 +17102,9 @@
       <c r="BB31" s="124"/>
       <c r="BC31" s="124"/>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32">
       <c r="A32" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>27</v>
       </c>
       <c r="B32" s="124"/>
@@ -17552,9 +17162,9 @@
       <c r="BB32" s="124"/>
       <c r="BC32" s="124"/>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33">
       <c r="A33" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>28</v>
       </c>
       <c r="B33" s="124"/>
@@ -17612,9 +17222,9 @@
       <c r="BB33" s="124"/>
       <c r="BC33" s="124"/>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34">
       <c r="A34" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>29</v>
       </c>
       <c r="B34" s="124"/>
@@ -17672,9 +17282,9 @@
       <c r="BB34" s="124"/>
       <c r="BC34" s="124"/>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35">
       <c r="A35" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>30</v>
       </c>
       <c r="B35" s="124"/>
@@ -17732,9 +17342,9 @@
       <c r="BB35" s="124"/>
       <c r="BC35" s="124"/>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36">
       <c r="A36" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>31</v>
       </c>
       <c r="B36" s="124"/>
@@ -17792,9 +17402,9 @@
       <c r="BB36" s="124"/>
       <c r="BC36" s="124"/>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37">
       <c r="A37" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>32</v>
       </c>
       <c r="B37" s="124"/>
@@ -17852,9 +17462,9 @@
       <c r="BB37" s="124"/>
       <c r="BC37" s="124"/>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38">
       <c r="A38" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>33</v>
       </c>
       <c r="B38" s="124"/>
@@ -17912,9 +17522,9 @@
       <c r="BB38" s="124"/>
       <c r="BC38" s="124"/>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39">
       <c r="A39" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>34</v>
       </c>
       <c r="B39" s="124"/>
@@ -17972,9 +17582,9 @@
       <c r="BB39" s="124"/>
       <c r="BC39" s="124"/>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40">
       <c r="A40" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>35</v>
       </c>
       <c r="B40" s="124"/>
@@ -18032,9 +17642,9 @@
       <c r="BB40" s="124"/>
       <c r="BC40" s="124"/>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41">
       <c r="A41" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>36</v>
       </c>
       <c r="B41" s="124"/>
@@ -18092,9 +17702,9 @@
       <c r="BB41" s="124"/>
       <c r="BC41" s="124"/>
     </row>
-    <row r="42" spans="1:55">
+    <row r="42">
       <c r="A42" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>37</v>
       </c>
       <c r="B42" s="124"/>
@@ -18152,9 +17762,9 @@
       <c r="BB42" s="124"/>
       <c r="BC42" s="124"/>
     </row>
-    <row r="43" spans="1:55">
+    <row r="43">
       <c r="A43" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>38</v>
       </c>
       <c r="B43" s="124"/>
@@ -18212,9 +17822,9 @@
       <c r="BB43" s="124"/>
       <c r="BC43" s="124"/>
     </row>
-    <row r="44" spans="1:55">
+    <row r="44">
       <c r="A44" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>39</v>
       </c>
       <c r="B44" s="124"/>
@@ -18272,9 +17882,9 @@
       <c r="BB44" s="124"/>
       <c r="BC44" s="124"/>
     </row>
-    <row r="45" spans="1:55">
+    <row r="45">
       <c r="A45" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>40</v>
       </c>
       <c r="B45" s="124"/>
@@ -18332,9 +17942,9 @@
       <c r="BB45" s="124"/>
       <c r="BC45" s="124"/>
     </row>
-    <row r="46" spans="1:55">
+    <row r="46">
       <c r="A46" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>41</v>
       </c>
       <c r="B46" s="124"/>
@@ -18392,9 +18002,9 @@
       <c r="BB46" s="124"/>
       <c r="BC46" s="124"/>
     </row>
-    <row r="47" spans="1:55">
+    <row r="47">
       <c r="A47" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>42</v>
       </c>
       <c r="B47" s="124"/>
@@ -18452,9 +18062,9 @@
       <c r="BB47" s="124"/>
       <c r="BC47" s="124"/>
     </row>
-    <row r="48" spans="1:55">
+    <row r="48">
       <c r="A48" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>43</v>
       </c>
       <c r="B48" s="124"/>
@@ -18512,9 +18122,9 @@
       <c r="BB48" s="124"/>
       <c r="BC48" s="124"/>
     </row>
-    <row r="49" spans="1:55">
+    <row r="49">
       <c r="A49" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>44</v>
       </c>
       <c r="B49" s="124"/>
@@ -18572,9 +18182,9 @@
       <c r="BB49" s="124"/>
       <c r="BC49" s="124"/>
     </row>
-    <row r="50" spans="1:55">
+    <row r="50">
       <c r="A50" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>45</v>
       </c>
       <c r="B50" s="124"/>
@@ -18632,9 +18242,9 @@
       <c r="BB50" s="124"/>
       <c r="BC50" s="124"/>
     </row>
-    <row r="51" spans="1:55">
+    <row r="51">
       <c r="A51" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>46</v>
       </c>
       <c r="B51" s="124"/>
@@ -18692,9 +18302,9 @@
       <c r="BB51" s="124"/>
       <c r="BC51" s="124"/>
     </row>
-    <row r="52" spans="1:55">
+    <row r="52">
       <c r="A52" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>47</v>
       </c>
       <c r="B52" s="124"/>
@@ -18752,9 +18362,9 @@
       <c r="BB52" s="124"/>
       <c r="BC52" s="124"/>
     </row>
-    <row r="53" spans="1:55">
+    <row r="53">
       <c r="A53" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>48</v>
       </c>
       <c r="B53" s="124"/>
@@ -18812,9 +18422,9 @@
       <c r="BB53" s="124"/>
       <c r="BC53" s="124"/>
     </row>
-    <row r="54" spans="1:55">
+    <row r="54">
       <c r="A54" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-5</f>
         <v>49</v>
       </c>
       <c r="B54" s="124"/>
@@ -18872,179 +18482,184 @@
       <c r="BB54" s="124"/>
       <c r="BC54" s="124"/>
     </row>
-    <row r="55" spans="1:55" ht="10.5"/>
+    <row r="55" ht="10"/>
   </sheetData>
   <mergeCells count="391">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:BC1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:BC2"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AA5"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="AJ5:AQ5"/>
+    <mergeCell ref="AR5:BC5"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="AB6:AI6"/>
+    <mergeCell ref="AJ6:AQ6"/>
+    <mergeCell ref="AR6:BC6"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AJ7:AQ7"/>
+    <mergeCell ref="AR7:BC7"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="AJ8:AQ8"/>
+    <mergeCell ref="AR8:BC8"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="AB9:AI9"/>
+    <mergeCell ref="AJ9:AQ9"/>
+    <mergeCell ref="AR9:BC9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AB10:AI10"/>
+    <mergeCell ref="AJ10:AQ10"/>
+    <mergeCell ref="AR10:BC10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="AB11:AI11"/>
+    <mergeCell ref="AJ11:AQ11"/>
+    <mergeCell ref="AR11:BC11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="AB12:AI12"/>
+    <mergeCell ref="AJ12:AQ12"/>
+    <mergeCell ref="AR12:BC12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="AB13:AI13"/>
+    <mergeCell ref="AJ13:AQ13"/>
+    <mergeCell ref="AR13:BC13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="AB14:AI14"/>
+    <mergeCell ref="AJ14:AQ14"/>
+    <mergeCell ref="AR14:BC14"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="AB15:AI15"/>
+    <mergeCell ref="AJ15:AQ15"/>
+    <mergeCell ref="AR15:BC15"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="AB16:AI16"/>
+    <mergeCell ref="AJ16:AQ16"/>
+    <mergeCell ref="AR16:BC16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="AB17:AI17"/>
+    <mergeCell ref="AJ17:AQ17"/>
+    <mergeCell ref="AR17:BC17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="AB18:AI18"/>
+    <mergeCell ref="AJ18:AQ18"/>
+    <mergeCell ref="AR18:BC18"/>
     <mergeCell ref="L19:P19"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="AJ17:AQ17"/>
-    <mergeCell ref="AJ18:AQ18"/>
-    <mergeCell ref="AR15:BC15"/>
-    <mergeCell ref="AR16:BC16"/>
-    <mergeCell ref="AR14:BC14"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="AB16:AI16"/>
-    <mergeCell ref="AB17:AI17"/>
-    <mergeCell ref="AR17:BC17"/>
-    <mergeCell ref="AR18:BC18"/>
-    <mergeCell ref="AJ9:AQ9"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="AB21:AI21"/>
-    <mergeCell ref="AJ21:AQ21"/>
-    <mergeCell ref="AR21:BC21"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="AR22:BC22"/>
-    <mergeCell ref="U23:AA23"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="AJ20:AQ20"/>
-    <mergeCell ref="AR20:BC20"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="U19:AA19"/>
     <mergeCell ref="AB19:AI19"/>
     <mergeCell ref="AJ19:AQ19"/>
+    <mergeCell ref="AR19:BC19"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="AB20:AI20"/>
+    <mergeCell ref="AJ20:AQ20"/>
+    <mergeCell ref="AR20:BC20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="AR19:BC19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="AB20:AI20"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AB21:AI21"/>
+    <mergeCell ref="AJ21:AQ21"/>
+    <mergeCell ref="AR21:BC21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="AB22:AI22"/>
+    <mergeCell ref="AJ22:AQ22"/>
+    <mergeCell ref="AR22:BC22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="AB23:AI23"/>
+    <mergeCell ref="AJ23:AQ23"/>
+    <mergeCell ref="AR23:BC23"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:AA24"/>
+    <mergeCell ref="AB24:AI24"/>
+    <mergeCell ref="AJ24:AQ24"/>
+    <mergeCell ref="AR24:BC24"/>
     <mergeCell ref="L25:P25"/>
     <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:AA25"/>
+    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="AJ25:AQ25"/>
     <mergeCell ref="AR25:BC25"/>
-    <mergeCell ref="AJ29:AQ29"/>
-    <mergeCell ref="AR29:BC29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="AJ24:AQ24"/>
-    <mergeCell ref="AR24:BC24"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:R26"/>
     <mergeCell ref="S26:T26"/>
     <mergeCell ref="U26:AA26"/>
     <mergeCell ref="AB26:AI26"/>
     <mergeCell ref="AJ26:AQ26"/>
     <mergeCell ref="AR26:BC26"/>
-    <mergeCell ref="AJ25:AQ25"/>
-    <mergeCell ref="AR27:BC27"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:AA25"/>
-    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="U27:AA27"/>
     <mergeCell ref="AB27:AI27"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="U5:AA5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="AJ14:AQ14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AJ15:AQ15"/>
-    <mergeCell ref="AJ16:AQ16"/>
-    <mergeCell ref="AJ10:AQ10"/>
-    <mergeCell ref="AJ11:AQ11"/>
-    <mergeCell ref="AB14:AI14"/>
-    <mergeCell ref="AB15:AI15"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="AJ5:AQ5"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="AB9:AI9"/>
-    <mergeCell ref="AB10:AI10"/>
-    <mergeCell ref="AB11:AI11"/>
-    <mergeCell ref="AB12:AI12"/>
-    <mergeCell ref="AB13:AI13"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="AR9:BC9"/>
-    <mergeCell ref="AR10:BC10"/>
-    <mergeCell ref="AR11:BC11"/>
-    <mergeCell ref="AR12:BC12"/>
-    <mergeCell ref="AT2:BC2"/>
-    <mergeCell ref="AT1:BC1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AR13:BC13"/>
-    <mergeCell ref="AR5:BC5"/>
-    <mergeCell ref="AR6:BC6"/>
-    <mergeCell ref="AR7:BC7"/>
-    <mergeCell ref="AR8:BC8"/>
-    <mergeCell ref="AJ12:AQ12"/>
-    <mergeCell ref="AJ6:AQ6"/>
-    <mergeCell ref="AJ7:AQ7"/>
-    <mergeCell ref="AJ8:AQ8"/>
-    <mergeCell ref="AF1:AO1"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="AB6:AI6"/>
-    <mergeCell ref="AB7:AI7"/>
-    <mergeCell ref="AJ13:AQ13"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="AB23:AI23"/>
-    <mergeCell ref="AJ23:AQ23"/>
-    <mergeCell ref="AR23:BC23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AB22:AI22"/>
-    <mergeCell ref="AJ22:AQ22"/>
+    <mergeCell ref="AJ27:AQ27"/>
+    <mergeCell ref="AR27:BC27"/>
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="L28:P28"/>
     <mergeCell ref="Q28:R28"/>
@@ -19052,15 +18667,15 @@
     <mergeCell ref="U28:AA28"/>
     <mergeCell ref="AB28:AI28"/>
     <mergeCell ref="AJ28:AQ28"/>
-    <mergeCell ref="U24:AA24"/>
-    <mergeCell ref="AB24:AI24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="AJ27:AQ27"/>
     <mergeCell ref="AR28:BC28"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB29:AI29"/>
+    <mergeCell ref="AJ29:AQ29"/>
+    <mergeCell ref="AR29:BC29"/>
     <mergeCell ref="B30:K30"/>
     <mergeCell ref="L30:P30"/>
     <mergeCell ref="Q30:R30"/>
@@ -19069,203 +18684,198 @@
     <mergeCell ref="AB30:AI30"/>
     <mergeCell ref="AJ30:AQ30"/>
     <mergeCell ref="AR30:BC30"/>
-    <mergeCell ref="AB29:AI29"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
     <mergeCell ref="U31:AA31"/>
     <mergeCell ref="AB31:AI31"/>
     <mergeCell ref="AJ31:AQ31"/>
     <mergeCell ref="AR31:BC31"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
     <mergeCell ref="U32:AA32"/>
     <mergeCell ref="AB32:AI32"/>
     <mergeCell ref="AJ32:AQ32"/>
     <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
     <mergeCell ref="U33:AA33"/>
     <mergeCell ref="AB33:AI33"/>
     <mergeCell ref="AJ33:AQ33"/>
     <mergeCell ref="AR33:BC33"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
     <mergeCell ref="U34:AA34"/>
     <mergeCell ref="AB34:AI34"/>
     <mergeCell ref="AJ34:AQ34"/>
     <mergeCell ref="AR34:BC34"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
     <mergeCell ref="U35:AA35"/>
     <mergeCell ref="AB35:AI35"/>
     <mergeCell ref="AJ35:AQ35"/>
     <mergeCell ref="AR35:BC35"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
     <mergeCell ref="U36:AA36"/>
     <mergeCell ref="AB36:AI36"/>
     <mergeCell ref="AJ36:AQ36"/>
     <mergeCell ref="AR36:BC36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
     <mergeCell ref="U37:AA37"/>
     <mergeCell ref="AB37:AI37"/>
     <mergeCell ref="AJ37:AQ37"/>
     <mergeCell ref="AR37:BC37"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
     <mergeCell ref="U38:AA38"/>
     <mergeCell ref="AB38:AI38"/>
     <mergeCell ref="AJ38:AQ38"/>
     <mergeCell ref="AR38:BC38"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
     <mergeCell ref="U39:AA39"/>
     <mergeCell ref="AB39:AI39"/>
     <mergeCell ref="AJ39:AQ39"/>
     <mergeCell ref="AR39:BC39"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
     <mergeCell ref="U40:AA40"/>
     <mergeCell ref="AB40:AI40"/>
     <mergeCell ref="AJ40:AQ40"/>
     <mergeCell ref="AR40:BC40"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
     <mergeCell ref="U41:AA41"/>
     <mergeCell ref="AB41:AI41"/>
     <mergeCell ref="AJ41:AQ41"/>
     <mergeCell ref="AR41:BC41"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
     <mergeCell ref="U42:AA42"/>
     <mergeCell ref="AB42:AI42"/>
     <mergeCell ref="AJ42:AQ42"/>
     <mergeCell ref="AR42:BC42"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
     <mergeCell ref="U43:AA43"/>
     <mergeCell ref="AB43:AI43"/>
     <mergeCell ref="AJ43:AQ43"/>
     <mergeCell ref="AR43:BC43"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
     <mergeCell ref="U44:AA44"/>
     <mergeCell ref="AB44:AI44"/>
     <mergeCell ref="AJ44:AQ44"/>
     <mergeCell ref="AR44:BC44"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
     <mergeCell ref="U45:AA45"/>
     <mergeCell ref="AB45:AI45"/>
     <mergeCell ref="AJ45:AQ45"/>
     <mergeCell ref="AR45:BC45"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
     <mergeCell ref="U46:AA46"/>
     <mergeCell ref="AB46:AI46"/>
     <mergeCell ref="AJ46:AQ46"/>
     <mergeCell ref="AR46:BC46"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
     <mergeCell ref="U47:AA47"/>
     <mergeCell ref="AB47:AI47"/>
     <mergeCell ref="AJ47:AQ47"/>
     <mergeCell ref="AR47:BC47"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
     <mergeCell ref="U48:AA48"/>
     <mergeCell ref="AB48:AI48"/>
     <mergeCell ref="AJ48:AQ48"/>
     <mergeCell ref="AR48:BC48"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:AA49"/>
+    <mergeCell ref="AB49:AI49"/>
+    <mergeCell ref="AJ49:AQ49"/>
+    <mergeCell ref="AR49:BC49"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:AA50"/>
+    <mergeCell ref="AB50:AI50"/>
+    <mergeCell ref="AJ50:AQ50"/>
+    <mergeCell ref="AR50:BC50"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:AA51"/>
+    <mergeCell ref="AB51:AI51"/>
+    <mergeCell ref="AJ51:AQ51"/>
+    <mergeCell ref="AR51:BC51"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:AA52"/>
+    <mergeCell ref="AB52:AI52"/>
+    <mergeCell ref="AJ52:AQ52"/>
+    <mergeCell ref="AR52:BC52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
     <mergeCell ref="U53:AA53"/>
     <mergeCell ref="AB53:AI53"/>
     <mergeCell ref="AJ53:AQ53"/>
     <mergeCell ref="AR53:BC53"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U49:AA49"/>
-    <mergeCell ref="AB49:AI49"/>
-    <mergeCell ref="AJ49:AQ49"/>
-    <mergeCell ref="AR49:BC49"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U50:AA50"/>
-    <mergeCell ref="AB50:AI50"/>
-    <mergeCell ref="AJ50:AQ50"/>
-    <mergeCell ref="AR50:BC50"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U51:AA51"/>
-    <mergeCell ref="AB51:AI51"/>
-    <mergeCell ref="AJ51:AQ51"/>
-    <mergeCell ref="AR51:BC51"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
     <mergeCell ref="U54:AA54"/>
     <mergeCell ref="AB54:AI54"/>
     <mergeCell ref="AJ54:AQ54"/>
     <mergeCell ref="AR54:BC54"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="U52:AA52"/>
-    <mergeCell ref="AB52:AI52"/>
-    <mergeCell ref="AJ52:AQ52"/>
-    <mergeCell ref="AR52:BC52"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -19295,7 +18905,7 @@
       <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="9.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="5" width="2.625" style="36"/>
     <col min="6" max="6" width="2.875" style="36" customWidth="1"/>
@@ -19304,9 +18914,9 @@
     <col min="14" max="16384" width="2.625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="9.75" thickTop="1">
+    <row r="1" ht="9">
       <c r="A1" s="85" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -19318,7 +18928,7 @@
       <c r="I1" s="86"/>
       <c r="J1" s="87"/>
       <c r="K1" s="91" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L1" s="91"/>
       <c r="M1" s="91"/>
@@ -19337,7 +18947,7 @@
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
       <c r="Y1" s="91" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="Z1" s="91"/>
       <c r="AA1" s="91"/>
@@ -19356,13 +18966,13 @@
       <c r="AK1" s="163"/>
       <c r="AL1" s="163"/>
       <c r="AM1" s="91" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="AN1" s="91"/>
       <c r="AO1" s="91"/>
       <c r="AP1" s="91"/>
       <c r="AQ1" s="158">
-        <f>IF(ISBLANK(表紙!AL47),"",(表紙!AL47))</f>
+        <f>IF(ISBLANK('表紙'!AL47),"",('表紙'!AL47))</f>
         <v>45056</v>
       </c>
       <c r="AR1" s="158"/>
@@ -19375,7 +18985,7 @@
       <c r="AY1" s="158"/>
       <c r="AZ1" s="159"/>
     </row>
-    <row r="2" spans="1:52" ht="15">
+    <row r="2" ht="15">
       <c r="A2" s="88"/>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -19387,13 +18997,13 @@
       <c r="I2" s="89"/>
       <c r="J2" s="90"/>
       <c r="K2" s="82" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L2" s="82"/>
       <c r="M2" s="82"/>
       <c r="N2" s="82"/>
       <c r="O2" s="100" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="P2" s="100"/>
       <c r="Q2" s="100"/>
@@ -19405,13 +19015,13 @@
       <c r="W2" s="100"/>
       <c r="X2" s="100"/>
       <c r="Y2" s="82" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="82"/>
       <c r="AA2" s="82"/>
       <c r="AB2" s="82"/>
       <c r="AC2" s="160" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="161"/>
       <c r="AE2" s="161"/>
@@ -19423,13 +19033,13 @@
       <c r="AK2" s="161"/>
       <c r="AL2" s="161"/>
       <c r="AM2" s="82" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="AN2" s="82"/>
       <c r="AO2" s="82"/>
       <c r="AP2" s="82"/>
       <c r="AQ2" s="161" t="str">
-        <f>IF(ISBLANK(表紙!AL49),"",(表紙!AL49))</f>
+        <f>IF(ISBLANK('表紙'!AL49),"",('表紙'!AL49))</f>
         <v>篠﨑</v>
       </c>
       <c r="AR2" s="161"/>
@@ -19442,12 +19052,12 @@
       <c r="AY2" s="161"/>
       <c r="AZ2" s="162"/>
     </row>
-    <row r="3" spans="1:52" ht="12" customHeight="1" thickTop="1">
+    <row r="3" customHeight="1" ht="12">
       <c r="B3" s="37"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4">
       <c r="A4" s="38" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -19501,7 +19111,7 @@
       <c r="AY4" s="39"/>
       <c r="AZ4" s="40"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -19555,10 +19165,10 @@
       <c r="AY5" s="42"/>
       <c r="AZ5" s="43"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6">
       <c r="A6" s="44"/>
       <c r="B6" s="45" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -19611,7 +19221,7 @@
       <c r="AY6" s="45"/>
       <c r="AZ6" s="46"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -19665,11 +19275,11 @@
       <c r="AY7" s="45"/>
       <c r="AZ7" s="46"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -19721,7 +19331,7 @@
       <c r="AY8" s="45"/>
       <c r="AZ8" s="46"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9">
       <c r="A9" s="44"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -19775,12 +19385,12 @@
       <c r="AY9" s="45"/>
       <c r="AZ9" s="46"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
@@ -19831,7 +19441,7 @@
       <c r="AY10" s="45"/>
       <c r="AZ10" s="46"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -19885,10 +19495,10 @@
       <c r="AY11" s="45"/>
       <c r="AZ11" s="46"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12">
       <c r="A12" s="44"/>
       <c r="B12" s="45" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -19941,7 +19551,7 @@
       <c r="AY12" s="45"/>
       <c r="AZ12" s="46"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13">
       <c r="A13" s="44"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -19995,12 +19605,12 @@
       <c r="AY13" s="45"/>
       <c r="AZ13" s="46"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14">
       <c r="A14" s="44"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
       <c r="D14" s="177" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E14" s="178"/>
       <c r="F14" s="178"/>
@@ -20051,15 +19661,15 @@
       <c r="AY14" s="45"/>
       <c r="AZ14" s="46"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15">
       <c r="A15" s="44"/>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
       <c r="D15" s="180" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E15" s="181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F15" s="181"/>
       <c r="G15" s="181"/>
@@ -20109,15 +19719,15 @@
       <c r="AY15" s="45"/>
       <c r="AZ15" s="46"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16">
       <c r="A16" s="44"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="180" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E16" s="181" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" s="181"/>
       <c r="G16" s="181"/>
@@ -20167,15 +19777,15 @@
       <c r="AY16" s="45"/>
       <c r="AZ16" s="46"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
       <c r="D17" s="180" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E17" s="181" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F17" s="181"/>
       <c r="G17" s="181"/>
@@ -20225,15 +19835,15 @@
       <c r="AY17" s="45"/>
       <c r="AZ17" s="46"/>
     </row>
-    <row r="18" spans="1:52" ht="10.5">
+    <row r="18" ht="10">
       <c r="A18" s="44"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
       <c r="D18" s="180" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E18" s="183" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F18" s="181"/>
       <c r="G18" s="181"/>
@@ -20283,15 +19893,15 @@
       <c r="AY18" s="45"/>
       <c r="AZ18" s="46"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19">
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="180" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E19" s="181" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F19" s="181"/>
       <c r="G19" s="181"/>
@@ -20341,7 +19951,7 @@
       <c r="AY19" s="45"/>
       <c r="AZ19" s="46"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -20395,12 +20005,12 @@
       <c r="AY20" s="45"/>
       <c r="AZ20" s="46"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21">
       <c r="A21" s="44"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
       <c r="D21" s="184" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
@@ -20451,26 +20061,26 @@
       <c r="AY21" s="45"/>
       <c r="AZ21" s="46"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22">
       <c r="A22" s="44"/>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
       <c r="D22" s="180"/>
       <c r="E22" s="181" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F22" s="181"/>
       <c r="G22" s="181"/>
       <c r="H22" s="181"/>
       <c r="I22" s="181"/>
       <c r="J22" s="181" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22" s="181"/>
       <c r="L22" s="181"/>
       <c r="M22" s="181"/>
       <c r="N22" s="181" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O22" s="181"/>
       <c r="P22" s="181"/>
@@ -20511,26 +20121,26 @@
       <c r="AY22" s="45"/>
       <c r="AZ22" s="46"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23">
       <c r="A23" s="44"/>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
       <c r="D23" s="180"/>
       <c r="E23" s="186" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F23" s="181"/>
       <c r="G23" s="181"/>
       <c r="H23" s="181"/>
       <c r="I23" s="181"/>
       <c r="J23" s="181" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K23" s="181"/>
       <c r="L23" s="181"/>
       <c r="M23" s="181"/>
       <c r="N23" s="181" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O23" s="181"/>
       <c r="P23" s="181"/>
@@ -20571,7 +20181,7 @@
       <c r="AY23" s="45"/>
       <c r="AZ23" s="46"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24">
       <c r="A24" s="44"/>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
@@ -20625,12 +20235,12 @@
       <c r="AY24" s="45"/>
       <c r="AZ24" s="46"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25">
       <c r="A25" s="44"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
       <c r="D25" s="187" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
@@ -20681,12 +20291,12 @@
       <c r="AY25" s="45"/>
       <c r="AZ25" s="46"/>
     </row>
-    <row r="26" spans="1:52" ht="23.25" customHeight="1">
+    <row r="26" customHeight="1" ht="23">
       <c r="A26" s="44"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="189" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E26" s="173"/>
       <c r="F26" s="173"/>
@@ -20737,12 +20347,12 @@
       <c r="AY26" s="45"/>
       <c r="AZ26" s="46"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
       <c r="D27" s="187" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E27" s="61"/>
       <c r="F27" s="61"/>
@@ -20793,12 +20403,12 @@
       <c r="AY27" s="45"/>
       <c r="AZ27" s="46"/>
     </row>
-    <row r="28" spans="1:52" ht="23.25" customHeight="1">
+    <row r="28" customHeight="1" ht="23">
       <c r="A28" s="44"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
       <c r="D28" s="174" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E28" s="174"/>
       <c r="F28" s="174"/>
@@ -20849,12 +20459,12 @@
       <c r="AY28" s="45"/>
       <c r="AZ28" s="46"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29">
       <c r="A29" s="44"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
       <c r="D29" s="62" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E29" s="63"/>
       <c r="F29" s="63"/>
@@ -20905,13 +20515,13 @@
       <c r="AY29" s="45"/>
       <c r="AZ29" s="46"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30">
       <c r="A30" s="44"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="180"/>
       <c r="E30" s="181" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F30" s="181"/>
       <c r="G30" s="181"/>
@@ -20961,7 +20571,7 @@
       <c r="AY30" s="45"/>
       <c r="AZ30" s="46"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31">
       <c r="A31" s="44"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -21015,12 +20625,12 @@
       <c r="AY31" s="45"/>
       <c r="AZ31" s="46"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32">
       <c r="A32" s="44"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
       <c r="D32" s="184" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
@@ -21071,13 +20681,13 @@
       <c r="AY32" s="45"/>
       <c r="AZ32" s="46"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33">
       <c r="A33" s="44"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
       <c r="D33" s="180"/>
       <c r="E33" s="181" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F33" s="181"/>
       <c r="G33" s="181"/>
@@ -21127,7 +20737,7 @@
       <c r="AY33" s="45"/>
       <c r="AZ33" s="46"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34">
       <c r="A34" s="44"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -21181,7 +20791,7 @@
       <c r="AY34" s="45"/>
       <c r="AZ34" s="46"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35">
       <c r="A35" s="44"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -21235,7 +20845,7 @@
       <c r="AY35" s="45"/>
       <c r="AZ35" s="46"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36">
       <c r="A36" s="44"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -21289,9 +20899,9 @@
       <c r="AY36" s="45"/>
       <c r="AZ36" s="46"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37">
       <c r="A37" s="38" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -21345,7 +20955,7 @@
       <c r="AY37" s="39"/>
       <c r="AZ37" s="40"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
@@ -21399,10 +21009,10 @@
       <c r="AY38" s="49"/>
       <c r="AZ38" s="50"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39">
       <c r="A39" s="44"/>
       <c r="B39" s="45" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -21455,11 +21065,11 @@
       <c r="AY39" s="45"/>
       <c r="AZ39" s="46"/>
     </row>
-    <row r="40" spans="1:52" ht="12">
+    <row r="40" ht="12">
       <c r="A40" s="44"/>
       <c r="B40" s="45"/>
       <c r="C40" s="65" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
@@ -21511,11 +21121,11 @@
       <c r="AY40" s="45"/>
       <c r="AZ40" s="46"/>
     </row>
-    <row r="41" spans="1:52" ht="12">
+    <row r="41" ht="12">
       <c r="A41" s="44"/>
       <c r="B41" s="45"/>
       <c r="C41" s="65" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
@@ -21567,11 +21177,11 @@
       <c r="AY41" s="45"/>
       <c r="AZ41" s="46"/>
     </row>
-    <row r="42" spans="1:52" ht="12">
+    <row r="42" ht="12">
       <c r="A42" s="44"/>
       <c r="B42" s="45"/>
       <c r="C42" s="175" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
@@ -21622,13 +21232,13 @@
       <c r="AY42" s="45"/>
       <c r="AZ42" s="46"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43">
       <c r="A43" s="44"/>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="45"/>
@@ -21678,7 +21288,7 @@
       <c r="AY43" s="45"/>
       <c r="AZ43" s="46"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44">
       <c r="A44" s="44"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
@@ -21732,7 +21342,7 @@
       <c r="AY44" s="45"/>
       <c r="AZ44" s="46"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45">
       <c r="A45" s="51"/>
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
@@ -21786,10 +21396,10 @@
       <c r="AY45" s="52"/>
       <c r="AZ45" s="53"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46">
       <c r="A46" s="51"/>
       <c r="B46" s="52" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C46" s="52"/>
       <c r="D46" s="49"/>
@@ -21842,7 +21452,7 @@
       <c r="AY46" s="52"/>
       <c r="AZ46" s="53"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47">
       <c r="A47" s="51"/>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -21896,7 +21506,7 @@
       <c r="AY47" s="52"/>
       <c r="AZ47" s="53"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48">
       <c r="A48" s="51"/>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
@@ -21950,93 +21560,93 @@
       <c r="AY48" s="52"/>
       <c r="AZ48" s="53"/>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49">
       <c r="A49" s="51"/>
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
       <c r="D49" s="66" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
       <c r="H49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="S49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="U49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="W49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF49" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG49" s="68" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH49" s="52"/>
       <c r="AI49" s="52"/>
@@ -22058,87 +21668,87 @@
       <c r="AY49" s="52"/>
       <c r="AZ49" s="53"/>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50">
       <c r="A50" s="51"/>
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
       <c r="D50" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E50" s="181" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="F50" s="181"/>
       <c r="G50" s="181"/>
       <c r="H50" s="181"/>
       <c r="I50" s="181"/>
       <c r="J50" s="181" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K50" s="181"/>
       <c r="L50" s="181"/>
       <c r="M50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="S50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="U50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="W50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF50" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG50" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH50" s="52"/>
       <c r="AI50" s="52"/>
@@ -22160,7 +21770,7 @@
       <c r="AY50" s="52"/>
       <c r="AZ50" s="53"/>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51">
       <c r="A51" s="51"/>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
@@ -22214,95 +21824,95 @@
       <c r="AY51" s="52"/>
       <c r="AZ51" s="53"/>
     </row>
-    <row r="52" spans="1:53" ht="7.5" customHeight="1">
+    <row r="52" customHeight="1" ht="7">
       <c r="A52" s="51"/>
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
       <c r="D52" s="66" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E52" s="67"/>
       <c r="F52" s="67"/>
       <c r="G52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="S52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="U52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="W52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF52" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG52" s="68" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH52" s="52"/>
       <c r="AI52" s="52"/>
@@ -22324,25 +21934,25 @@
       <c r="AY52" s="52"/>
       <c r="AZ52" s="53"/>
     </row>
-    <row r="53" spans="1:53" ht="12" customHeight="1">
+    <row r="53" customHeight="1" ht="12">
       <c r="A53" s="51"/>
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
       <c r="D53" s="194"/>
       <c r="E53" s="195" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F53" s="197"/>
       <c r="G53" s="197"/>
       <c r="H53" s="197"/>
       <c r="I53" s="197"/>
       <c r="J53" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K53" s="197"/>
       <c r="L53" s="197"/>
       <c r="M53" s="198" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N53" s="197"/>
       <c r="O53" s="197"/>
@@ -22380,33 +21990,33 @@
       <c r="AY53" s="52"/>
       <c r="AZ53" s="53"/>
     </row>
-    <row r="54" spans="1:53" ht="12" customHeight="1">
+    <row r="54" customHeight="1" ht="12">
       <c r="A54" s="51"/>
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
       <c r="D54" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E54" s="195" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F54" s="195"/>
       <c r="G54" s="195"/>
       <c r="H54" s="195"/>
       <c r="I54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J54" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M54" s="195" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N54" s="195"/>
       <c r="O54" s="195"/>
@@ -22414,43 +22024,43 @@
       <c r="Q54" s="195"/>
       <c r="R54" s="195"/>
       <c r="S54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T54" s="195"/>
       <c r="U54" s="195"/>
       <c r="V54" s="195"/>
       <c r="W54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF54" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG54" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH54" s="52"/>
       <c r="AI54" s="52"/>
@@ -22468,35 +22078,35 @@
       <c r="AY54" s="52"/>
       <c r="AZ54" s="53"/>
     </row>
-    <row r="55" spans="1:53" ht="12" customHeight="1">
+    <row r="55" customHeight="1" ht="12">
       <c r="A55" s="51"/>
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
       <c r="D55" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E55" s="195" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F55" s="195"/>
       <c r="G55" s="195"/>
       <c r="H55" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I55" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J55" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K55" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L55" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M55" s="195" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N55" s="195"/>
       <c r="O55" s="195"/>
@@ -22516,13 +22126,13 @@
       <c r="AC55" s="195"/>
       <c r="AD55" s="195"/>
       <c r="AE55" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF55" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG55" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH55" s="52"/>
       <c r="AI55" s="52"/>
@@ -22540,37 +22150,37 @@
       <c r="AY55" s="52"/>
       <c r="AZ55" s="53"/>
     </row>
-    <row r="56" spans="1:53" ht="12" customHeight="1">
+    <row r="56" customHeight="1" ht="12">
       <c r="A56" s="51"/>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
       <c r="D56" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E56" s="195" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F56" s="195"/>
       <c r="G56" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H56" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I56" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J56" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K56" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L56" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M56" s="195" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="N56" s="195"/>
       <c r="O56" s="195"/>
@@ -22590,13 +22200,13 @@
       <c r="AC56" s="195"/>
       <c r="AD56" s="195"/>
       <c r="AE56" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF56" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG56" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH56" s="52"/>
       <c r="AI56" s="52"/>
@@ -22614,27 +22224,27 @@
       <c r="AY56" s="52"/>
       <c r="AZ56" s="53"/>
     </row>
-    <row r="57" spans="1:53" ht="12" customHeight="1">
+    <row r="57" customHeight="1" ht="12">
       <c r="A57" s="51"/>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
       <c r="D57" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E57" s="195" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F57" s="195"/>
       <c r="G57" s="195"/>
       <c r="H57" s="195"/>
       <c r="I57" s="195"/>
       <c r="J57" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K57" s="195"/>
       <c r="L57" s="195"/>
       <c r="M57" s="199" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N57" s="195"/>
       <c r="O57" s="195"/>
@@ -22654,13 +22264,13 @@
       <c r="AC57" s="195"/>
       <c r="AD57" s="195"/>
       <c r="AE57" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF57" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG57" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH57" s="52"/>
       <c r="AI57" s="52"/>
@@ -22678,93 +22288,93 @@
       <c r="AY57" s="52"/>
       <c r="AZ57" s="53"/>
     </row>
-    <row r="58" spans="1:53" ht="12" customHeight="1">
+    <row r="58" customHeight="1" ht="12">
       <c r="A58" s="51"/>
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
       <c r="D58" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E58" s="195" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F58" s="186"/>
       <c r="G58" s="186"/>
       <c r="H58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J58" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M58" s="195" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="N58" s="195"/>
       <c r="O58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="S58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="U58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="W58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF58" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG58" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH58" s="52"/>
       <c r="AI58" s="52"/>
@@ -22782,25 +22392,25 @@
       <c r="AY58" s="52"/>
       <c r="AZ58" s="53"/>
     </row>
-    <row r="59" spans="1:53" ht="12" customHeight="1">
+    <row r="59" customHeight="1" ht="12">
       <c r="A59" s="51"/>
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
       <c r="D59" s="194"/>
       <c r="E59" s="195" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F59" s="195"/>
       <c r="G59" s="195"/>
       <c r="H59" s="195"/>
       <c r="I59" s="195"/>
       <c r="J59" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K59" s="195"/>
       <c r="L59" s="195"/>
       <c r="M59" s="195" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N59" s="195"/>
       <c r="O59" s="195"/>
@@ -22842,25 +22452,25 @@
       <c r="AY59" s="52"/>
       <c r="AZ59" s="53"/>
     </row>
-    <row r="60" spans="1:53" ht="12" customHeight="1">
+    <row r="60" customHeight="1" ht="12">
       <c r="A60" s="51"/>
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
       <c r="D60" s="194"/>
       <c r="E60" s="195" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F60" s="195"/>
       <c r="G60" s="195"/>
       <c r="H60" s="195"/>
       <c r="I60" s="195"/>
       <c r="J60" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K60" s="195"/>
       <c r="L60" s="195"/>
       <c r="M60" s="195" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="N60" s="195"/>
       <c r="O60" s="195"/>
@@ -22902,25 +22512,25 @@
       <c r="AY60" s="52"/>
       <c r="AZ60" s="53"/>
     </row>
-    <row r="61" spans="1:53" ht="12" customHeight="1">
+    <row r="61" customHeight="1" ht="12">
       <c r="A61" s="51"/>
       <c r="B61" s="52"/>
       <c r="C61" s="52"/>
       <c r="D61" s="194"/>
       <c r="E61" s="195" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F61" s="195"/>
       <c r="G61" s="195"/>
       <c r="H61" s="195"/>
       <c r="I61" s="195"/>
       <c r="J61" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K61" s="195"/>
       <c r="L61" s="195"/>
       <c r="M61" s="195" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N61" s="195"/>
       <c r="O61" s="195"/>
@@ -22963,7 +22573,7 @@
       <c r="AZ61" s="52"/>
       <c r="BA61" s="52"/>
     </row>
-    <row r="62" spans="1:53" ht="12" customHeight="1">
+    <row r="62" customHeight="1" ht="12">
       <c r="A62" s="51"/>
       <c r="B62" s="52"/>
       <c r="C62" s="52"/>
@@ -23018,7 +22628,7 @@
       <c r="AZ62" s="52"/>
       <c r="BA62" s="52"/>
     </row>
-    <row r="63" spans="1:53" ht="10.5">
+    <row r="63" ht="10">
       <c r="A63" s="51"/>
       <c r="B63" s="52"/>
       <c r="C63" s="52"/>
@@ -23072,10 +22682,10 @@
       <c r="AY63" s="52"/>
       <c r="AZ63" s="53"/>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64">
       <c r="A64" s="51"/>
       <c r="B64" s="52" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C64" s="52"/>
       <c r="D64" s="49"/>
@@ -23128,7 +22738,7 @@
       <c r="AY64" s="52"/>
       <c r="AZ64" s="53"/>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65">
       <c r="A65" s="51"/>
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
@@ -23182,93 +22792,93 @@
       <c r="AY65" s="52"/>
       <c r="AZ65" s="53"/>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66">
       <c r="A66" s="51"/>
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
       <c r="D66" s="66" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E66" s="67"/>
       <c r="F66" s="67"/>
       <c r="G66" s="67"/>
       <c r="H66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="S66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="U66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="W66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF66" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG66" s="68" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH66" s="52"/>
       <c r="AI66" s="52"/>
@@ -23290,89 +22900,89 @@
       <c r="AY66" s="52"/>
       <c r="AZ66" s="53"/>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67">
       <c r="A67" s="51"/>
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
       <c r="D67" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E67" s="195" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F67" s="195"/>
       <c r="G67" s="195"/>
       <c r="H67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J67" s="195" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K67" s="195"/>
       <c r="L67" s="195"/>
       <c r="M67" s="195"/>
       <c r="N67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="S67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="U67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="W67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF67" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG67" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH67" s="52"/>
       <c r="AI67" s="52"/>
@@ -23394,7 +23004,7 @@
       <c r="AY67" s="52"/>
       <c r="AZ67" s="53"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68">
       <c r="A68" s="51"/>
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
@@ -23448,95 +23058,95 @@
       <c r="AY68" s="52"/>
       <c r="AZ68" s="53"/>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69">
       <c r="A69" s="51"/>
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
       <c r="D69" s="66" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
       <c r="G69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="S69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="U69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="W69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF69" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG69" s="68" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH69" s="52"/>
       <c r="AI69" s="52"/>
@@ -23558,12 +23168,12 @@
       <c r="AY69" s="52"/>
       <c r="AZ69" s="53"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70">
       <c r="A70" s="51"/>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
       <c r="D70" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E70" s="195"/>
       <c r="F70" s="195"/>
@@ -23585,34 +23195,34 @@
       <c r="V70" s="195"/>
       <c r="W70" s="195"/>
       <c r="X70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF70" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG70" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH70" s="52"/>
       <c r="AI70" s="52"/>
@@ -23634,25 +23244,25 @@
       <c r="AY70" s="52"/>
       <c r="AZ70" s="53"/>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71">
       <c r="A71" s="51"/>
       <c r="B71" s="52"/>
       <c r="C71" s="52"/>
       <c r="D71" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E71" s="195" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F71" s="195"/>
       <c r="G71" s="195"/>
       <c r="H71" s="195" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I71" s="195"/>
       <c r="J71" s="195"/>
       <c r="K71" s="195" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L71" s="195"/>
       <c r="M71" s="195"/>
@@ -23667,34 +23277,34 @@
       <c r="V71" s="195"/>
       <c r="W71" s="195"/>
       <c r="X71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF71" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG71" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH71" s="52"/>
       <c r="AI71" s="52"/>
@@ -23716,7 +23326,7 @@
       <c r="AY71" s="52"/>
       <c r="AZ71" s="53"/>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72">
       <c r="A72" s="51"/>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
@@ -23729,7 +23339,7 @@
       <c r="J72" s="195"/>
       <c r="K72" s="195"/>
       <c r="L72" s="195" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="M72" s="195"/>
       <c r="N72" s="195"/>
@@ -23772,7 +23382,7 @@
       <c r="AY72" s="52"/>
       <c r="AZ72" s="53"/>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73">
       <c r="A73" s="51"/>
       <c r="B73" s="52"/>
       <c r="C73" s="52"/>
@@ -23784,7 +23394,7 @@
       <c r="I73" s="195"/>
       <c r="J73" s="195"/>
       <c r="K73" s="195" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L73" s="195"/>
       <c r="M73" s="195"/>
@@ -23828,7 +23438,7 @@
       <c r="AY73" s="52"/>
       <c r="AZ73" s="53"/>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74">
       <c r="A74" s="51"/>
       <c r="B74" s="52"/>
       <c r="C74" s="52"/>
@@ -23841,7 +23451,7 @@
       <c r="J74" s="195"/>
       <c r="K74" s="195"/>
       <c r="L74" s="195" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M74" s="195"/>
       <c r="N74" s="195"/>
@@ -23884,95 +23494,95 @@
       <c r="AY74" s="52"/>
       <c r="AZ74" s="53"/>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75">
       <c r="A75" s="51"/>
       <c r="B75" s="52"/>
       <c r="C75" s="52"/>
       <c r="D75" s="66" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E75" s="67"/>
       <c r="F75" s="67"/>
       <c r="G75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Q75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="S75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="T75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="U75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="W75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF75" s="67" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG75" s="68" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH75" s="52"/>
       <c r="AI75" s="52"/>
@@ -23994,12 +23604,12 @@
       <c r="AY75" s="52"/>
       <c r="AZ75" s="53"/>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76">
       <c r="A76" s="51"/>
       <c r="B76" s="52"/>
       <c r="C76" s="52"/>
       <c r="D76" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E76" s="195"/>
       <c r="F76" s="195"/>
@@ -24021,34 +23631,34 @@
       <c r="V76" s="195"/>
       <c r="W76" s="195"/>
       <c r="X76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Y76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="Z76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AA76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF76" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG76" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH76" s="52"/>
       <c r="AI76" s="52"/>
@@ -24070,15 +23680,15 @@
       <c r="AY76" s="52"/>
       <c r="AZ76" s="53"/>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77">
       <c r="A77" s="51"/>
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
       <c r="D77" s="194" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E77" s="195" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F77" s="195"/>
       <c r="G77" s="195"/>
@@ -24091,7 +23701,7 @@
       <c r="N77" s="195"/>
       <c r="O77" s="195"/>
       <c r="P77" s="195" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="Q77" s="195"/>
       <c r="R77" s="195"/>
@@ -24104,25 +23714,25 @@
       <c r="Y77" s="195"/>
       <c r="Z77" s="195"/>
       <c r="AA77" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AB77" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC77" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AD77" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AE77" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AF77" s="195" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AG77" s="196" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AH77" s="52"/>
       <c r="AI77" s="52"/>
@@ -24144,13 +23754,13 @@
       <c r="AY77" s="52"/>
       <c r="AZ77" s="53"/>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78">
       <c r="A78" s="51"/>
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
       <c r="D78" s="200"/>
       <c r="E78" s="201" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F78" s="201"/>
       <c r="G78" s="201"/>
@@ -24200,7 +23810,7 @@
       <c r="AY78" s="52"/>
       <c r="AZ78" s="53"/>
     </row>
-    <row r="79" spans="1:52" ht="10.5">
+    <row r="79" ht="10">
       <c r="A79" s="51"/>
       <c r="B79" s="52"/>
       <c r="C79" s="52"/>
@@ -24254,13 +23864,13 @@
       <c r="AY79" s="52"/>
       <c r="AZ79" s="53"/>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80">
       <c r="A80" s="51"/>
       <c r="AZ80" s="55"/>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81">
       <c r="A81" s="38" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -24314,87 +23924,87 @@
       <c r="AY81" s="39"/>
       <c r="AZ81" s="40"/>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82">
       <c r="A82" s="54"/>
       <c r="AZ82" s="55"/>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83">
       <c r="A83" s="54"/>
       <c r="AZ83" s="55"/>
     </row>
-    <row r="84" spans="1:52" ht="10.5">
+    <row r="84" ht="10">
       <c r="A84" s="54"/>
       <c r="C84" s="36" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D84" s="176" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M84" s="72"/>
       <c r="N84" s="72"/>
       <c r="AZ84" s="55"/>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85">
       <c r="A85" s="54"/>
       <c r="AZ85" s="55"/>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86">
       <c r="A86" s="54"/>
       <c r="AZ86" s="55"/>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87">
       <c r="A87" s="54"/>
       <c r="AZ87" s="55"/>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88">
       <c r="A88" s="54"/>
       <c r="AZ88" s="55"/>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89">
       <c r="A89" s="54"/>
       <c r="AZ89" s="55"/>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90">
       <c r="A90" s="54"/>
       <c r="AZ90" s="55"/>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91">
       <c r="A91" s="54"/>
       <c r="AZ91" s="55"/>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92">
       <c r="A92" s="54"/>
       <c r="AZ92" s="55"/>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93">
       <c r="A93" s="54"/>
       <c r="AZ93" s="55"/>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94">
       <c r="A94" s="54"/>
       <c r="AZ94" s="55"/>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95">
       <c r="A95" s="54"/>
       <c r="AZ95" s="55"/>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96">
       <c r="A96" s="54"/>
       <c r="AZ96" s="55"/>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97">
       <c r="A97" s="54"/>
       <c r="AZ97" s="55"/>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98">
       <c r="A98" s="54"/>
       <c r="AZ98" s="55"/>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99">
       <c r="A99" s="54"/>
       <c r="AZ99" s="55"/>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100">
       <c r="A100" s="56"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
@@ -24448,21 +24058,24 @@
       <c r="AY100" s="57"/>
       <c r="AZ100" s="58"/>
     </row>
-    <row r="101" spans="1:52" ht="10.5"/>
-    <row r="105" spans="1:52" ht="10.5"/>
-    <row r="106" spans="1:52" ht="10.5"/>
-    <row r="107" spans="1:52" ht="10.5"/>
-    <row r="108" spans="1:52" ht="10.5"/>
-    <row r="109" spans="1:52" ht="10.5"/>
-    <row r="113" ht="10.5"/>
-    <row r="123" ht="10.5"/>
-    <row r="128" ht="10.5"/>
-    <row r="129" ht="10.5"/>
+    <row r="101" ht="10"/>
+    <row r="105" ht="10"/>
+    <row r="106" ht="10"/>
+    <row r="107" ht="10"/>
+    <row r="108" ht="10"/>
+    <row r="109" ht="10"/>
+    <row r="113" ht="10"/>
+    <row r="123" ht="10"/>
+    <row r="128" ht="10"/>
+    <row r="129" ht="10"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
     <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="D28:AG28"/>
-    <mergeCell ref="D26:AG26"/>
     <mergeCell ref="AQ1:AZ1"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:X2"/>
@@ -24470,11 +24083,8 @@
     <mergeCell ref="AC2:AL2"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="D26:AG26"/>
+    <mergeCell ref="D28:AG28"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
